--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -270,6 +270,24 @@
   </si>
   <si>
     <t xml:space="preserve">Critical Path Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulator USA (FDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astellas</t>
   </si>
 </sst>
 </file>
@@ -2927,6 +2945,534 @@
         <v>25</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>87</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>88</v>
+      </c>
+      <c r="D170" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174"/>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>83</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>47</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>66</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>66</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>66</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>57</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>66</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192"/>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>66</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>47</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>91</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>38</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>38</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>66</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>66</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>83</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>66</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>69</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>66</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t xml:space="preserve">Astellas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstraZeneca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daiichi Sankyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Basel</t>
   </si>
 </sst>
 </file>
@@ -3473,6 +3482,160 @@
         <v>74</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>47</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>47</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>92</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>92</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>92</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>92</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>93</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>94</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -3636,6 +3636,188 @@
         <v>7</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>92</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>92</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t xml:space="preserve">University of Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
   </si>
 </sst>
 </file>
@@ -3818,6 +3824,76 @@
         <v>25</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>23</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>47</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>92</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>66</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valos</t>
   </si>
 </sst>
 </file>
@@ -3894,6 +3897,90 @@
         <v>32</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>97</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>38</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>38</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>97</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -3981,6 +3981,20 @@
         <v>28</v>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>40</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -3995,6 +3995,182 @@
         <v>41</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>66</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244"/>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246"/>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>16</v>
+      </c>
+      <c r="D248" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>38</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250"/>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>16</v>
+      </c>
+      <c r="D250" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>38</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>66</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>47</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>83</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t xml:space="preserve">Valos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharvaris</t>
   </si>
 </sst>
 </file>
@@ -4024,7 +4027,9 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244"/>
+      <c r="A244" t="s">
+        <v>98</v>
+      </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
@@ -4050,7 +4055,9 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246"/>
+      <c r="A246" t="s">
+        <v>98</v>
+      </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -26,289 +26,289 @@
     <t xml:space="preserve">country2</t>
   </si>
   <si>
+    <t xml:space="preserve">BMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biotech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novartis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merck KGaA</t>
   </si>
   <si>
-    <t xml:space="preserve">Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson and Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novo Nordisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parexel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saryga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMU Munich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bordeaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKFZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurich Data Scientists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windward Bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuvation Bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolinska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lundbeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alira Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstraZeneca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmalex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boehringer Ingelheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical University of Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cencora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daiichi Sankyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanofi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmalog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecker+Exker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EORTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanderbilt global services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Hospital Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viatris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOMEDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Periyar, Salem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octa Consulting Services Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironwoodpharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astellas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ono Pharmaceutical</t>
   </si>
   <si>
     <t xml:space="preserve">One2Treat</t>
   </si>
   <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viatris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alira Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
+    <t xml:space="preserve">Galapagos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chugai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Group for Applied Cancer Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulator USA (FDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClinChoice</t>
   </si>
   <si>
     <t xml:space="preserve">QS Companion BV</t>
   </si>
   <si>
-    <t xml:space="preserve">Roche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galapagos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biotech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuvation Bio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMU Munich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Periyar, Salem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chugai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
+    <t xml:space="preserve">Pharvaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical Path Institute</t>
   </si>
   <si>
     <t xml:space="preserve">Immunocore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecker+Exker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novartis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lundbeck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zurich Data Scientists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cencora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson and Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ono Pharmaceutical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karolinska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EORTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClinChoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanofi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parexel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windward Bio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Hospital Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sobi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKFZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironwoodpharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novo Nordisk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical University of Vienna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bordeaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmalog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octa Consulting Services Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boehringer Ingelheim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Group for Applied Cancer Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACOMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iOMEDICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmalex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saryga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanderbilt global services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical Path Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulator USA (FDA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astellas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AstraZeneca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daiichi Sankyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharvaris</t>
   </si>
 </sst>
 </file>
@@ -670,69 +670,69 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -740,13 +740,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -754,41 +754,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -802,71 +800,71 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -875,117 +873,119 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22"/>
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -996,10 +996,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1008,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1022,21 +1022,21 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
         <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1044,84 +1044,86 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33"/>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1132,105 +1134,105 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1238,21 +1240,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1261,138 +1263,138 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1406,7 +1408,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1415,156 +1417,148 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
-        <v>20</v>
-      </c>
+      <c r="A60"/>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62"/>
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1572,247 +1566,249 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76"/>
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79"/>
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>38</v>
-      </c>
+      <c r="A83"/>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -1820,41 +1816,41 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1862,7 +1858,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1871,144 +1867,142 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s">
-        <v>38</v>
-      </c>
+      <c r="A92"/>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2016,13 +2010,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2030,16 +2024,16 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -2050,71 +2044,71 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D104" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2123,49 +2117,49 @@
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
@@ -2176,147 +2170,147 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -2324,97 +2318,95 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s">
-        <v>77</v>
-      </c>
+      <c r="A126"/>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -2422,21 +2414,21 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -2445,26 +2437,26 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -2473,312 +2465,310 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s">
-        <v>64</v>
-      </c>
+      <c r="A137"/>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
@@ -2786,21 +2776,21 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -2809,40 +2799,40 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -2851,68 +2841,60 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s">
-        <v>83</v>
-      </c>
-      <c r="B161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" t="s">
-        <v>17</v>
-      </c>
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -2921,137 +2903,123 @@
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D166" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s">
-        <v>85</v>
-      </c>
-      <c r="B167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167" t="s">
-        <v>25</v>
-      </c>
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s">
-        <v>20</v>
-      </c>
-      <c r="B171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" t="s">
-        <v>7</v>
-      </c>
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174"/>
+      <c r="A174" t="s">
+        <v>39</v>
+      </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
@@ -3064,83 +3032,83 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -3148,77 +3116,77 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D182" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -3227,89 +3195,91 @@
         <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192"/>
+      <c r="A192" t="s">
+        <v>20</v>
+      </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193">
@@ -3320,113 +3290,111 @@
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s">
-        <v>91</v>
-      </c>
+      <c r="A196"/>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3435,102 +3403,102 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -3544,85 +3512,85 @@
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -3631,18 +3599,18 @@
         <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
@@ -3650,189 +3618,181 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s">
-        <v>14</v>
-      </c>
-      <c r="B222" t="s">
-        <v>5</v>
-      </c>
-      <c r="C222" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" t="s">
-        <v>25</v>
-      </c>
+      <c r="A222"/>
+      <c r="B222"/>
+      <c r="C222"/>
+      <c r="D222"/>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D225" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D228" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -3841,74 +3801,66 @@
         <v>23</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s">
-        <v>92</v>
-      </c>
-      <c r="B232" t="s">
-        <v>5</v>
-      </c>
-      <c r="C232" t="s">
-        <v>6</v>
-      </c>
-      <c r="D232" t="s">
-        <v>96</v>
-      </c>
+      <c r="A232"/>
+      <c r="B232"/>
+      <c r="C232"/>
+      <c r="D232"/>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D233" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
         <v>7</v>
@@ -3916,27 +3868,27 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
@@ -3944,125 +3896,123 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241"/>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>23</v>
+      </c>
+      <c r="D241" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>40</v>
-      </c>
-      <c r="B241" t="s">
-        <v>5</v>
-      </c>
-      <c r="C241" t="s">
-        <v>6</v>
-      </c>
-      <c r="D241" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
@@ -4070,103 +4020,105 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250"/>
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
       <c r="B250" t="s">
         <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -4175,7 +4127,91 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>98</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>39</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>60</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -149,12 +149,18 @@
     <t xml:space="preserve">Karolinska</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Goettingen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lundbeck</t>
   </si>
   <si>
     <t xml:space="preserve">Sandoz</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Bath</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alira Health</t>
   </si>
   <si>
@@ -197,9 +203,6 @@
     <t xml:space="preserve">Sanofi</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Bath</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Basel</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
     <t xml:space="preserve">University Hospital Basel</t>
   </si>
   <si>
+    <t xml:space="preserve">Leibniz Institute for Prevention Research and Epidemiology - BIPS, Bremen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viatris</t>
   </si>
   <si>
@@ -303,6 +309,9 @@
   </si>
   <si>
     <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basel Academy for Quality and Research in Medicine</t>
   </si>
   <si>
     <t xml:space="preserve">Critical Path Institute</t>
@@ -1142,7 +1151,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1156,35 +1165,35 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1198,21 +1207,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1221,12 +1230,12 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1235,21 +1244,21 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1260,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -1268,7 +1277,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1282,21 +1291,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1305,26 +1314,26 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1338,7 +1347,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1347,12 +1356,12 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1366,16 +1375,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
         <v>12</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
@@ -1383,7 +1392,7 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -1394,7 +1403,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1408,41 +1417,49 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1451,16 +1468,18 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60"/>
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -1468,35 +1487,27 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -1505,13 +1516,11 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>50</v>
-      </c>
+      <c r="A64"/>
       <c r="B64" t="s">
         <v>5</v>
       </c>
@@ -1519,12 +1528,12 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -1533,18 +1542,18 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1552,7 +1561,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -1561,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -1572,15 +1581,15 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1594,7 +1603,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -1608,7 +1617,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -1617,26 +1626,26 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1645,12 +1654,12 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -1664,35 +1673,35 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -1701,46 +1710,46 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1748,7 +1757,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -1757,38 +1766,40 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83"/>
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -1797,12 +1808,12 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -1811,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
@@ -1822,24 +1833,22 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
+      <c r="A87"/>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -1853,12 +1862,12 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1867,26 +1876,26 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -1895,24 +1904,26 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92"/>
+      <c r="A92" t="s">
+        <v>63</v>
+      </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1921,68 +1932,66 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s">
-        <v>20</v>
-      </c>
+      <c r="A96"/>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -1991,26 +2000,26 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2019,26 +2028,26 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2047,54 +2056,54 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -2103,54 +2112,54 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -2159,40 +2168,40 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2206,7 +2215,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2215,54 +2224,54 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -2271,26 +2280,26 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -2299,54 +2308,54 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
         <v>12</v>
       </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2355,12 +2364,12 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2369,52 +2378,54 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126"/>
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -2423,12 +2434,12 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -2437,40 +2448,38 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s">
-        <v>20</v>
-      </c>
+      <c r="A131"/>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -2479,7 +2488,7 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -2493,52 +2502,54 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137"/>
+      <c r="A137" t="s">
+        <v>46</v>
+      </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -2547,12 +2558,12 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -2561,12 +2572,12 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -2580,49 +2591,47 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s">
-        <v>8</v>
-      </c>
+      <c r="A142"/>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2631,40 +2640,40 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2678,66 +2687,66 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
@@ -2748,7 +2757,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -2757,82 +2766,82 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
         <v>12</v>
       </c>
-      <c r="C155" t="s">
-        <v>9</v>
-      </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -2841,32 +2850,40 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161"/>
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -2875,40 +2892,40 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -2922,16 +2939,16 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B166" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -2942,7 +2959,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -2951,74 +2968,74 @@
         <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171"/>
-      <c r="B171"/>
-      <c r="C171"/>
-      <c r="D171"/>
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s">
-        <v>14</v>
-      </c>
-      <c r="B173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" t="s">
-        <v>7</v>
-      </c>
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -3027,18 +3044,18 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
         <v>29</v>
@@ -3046,7 +3063,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -3055,29 +3072,21 @@
         <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" t="s">
-        <v>7</v>
-      </c>
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
@@ -3088,7 +3097,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -3102,7 +3111,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3119,32 +3128,32 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -3153,26 +3162,26 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -3181,18 +3190,18 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -3200,7 +3209,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -3209,21 +3218,21 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189">
@@ -3234,15 +3243,15 @@
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -3251,54 +3260,54 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -3307,38 +3316,40 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196"/>
+      <c r="A196" t="s">
+        <v>84</v>
+      </c>
       <c r="B196" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D196" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -3352,7 +3363,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B198" t="s">
         <v>12</v>
@@ -3361,15 +3372,15 @@
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
@@ -3380,21 +3391,21 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3403,68 +3414,66 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s">
-        <v>4</v>
-      </c>
+      <c r="A203"/>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3473,26 +3482,26 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -3506,21 +3515,21 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3529,40 +3538,40 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -3571,7 +3580,7 @@
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="214">
@@ -3585,26 +3594,26 @@
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -3613,12 +3622,12 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -3627,18 +3636,18 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D218" t="s">
         <v>10</v>
@@ -3646,13 +3655,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
@@ -3669,12 +3678,12 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -3683,21 +3692,29 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
+      <c r="A222" t="s">
+        <v>91</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
         <v>39</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
@@ -3708,7 +3725,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -3717,40 +3734,40 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D226" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -3759,54 +3776,46 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s">
-        <v>11</v>
-      </c>
-      <c r="B229" t="s">
-        <v>42</v>
-      </c>
-      <c r="C229" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" t="s">
-        <v>7</v>
-      </c>
+      <c r="A229"/>
+      <c r="B229"/>
+      <c r="C229"/>
+      <c r="D229"/>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -3815,27 +3824,35 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232"/>
-      <c r="B232"/>
-      <c r="C232"/>
-      <c r="D232"/>
+      <c r="A232" t="s">
+        <v>93</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>94</v>
+      </c>
+      <c r="D232" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
@@ -3849,35 +3866,35 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -3888,69 +3905,63 @@
         <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s">
-        <v>82</v>
-      </c>
-      <c r="B239" t="s">
-        <v>5</v>
-      </c>
-      <c r="C239" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" t="s">
-        <v>7</v>
-      </c>
+      <c r="A239"/>
+      <c r="B239"/>
+      <c r="C239"/>
+      <c r="D239"/>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
         <v>12</v>
       </c>
-      <c r="C240" t="s">
-        <v>9</v>
-      </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241"/>
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -3959,12 +3970,12 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -3973,46 +3984,46 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C245" t="s">
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
@@ -4020,35 +4031,33 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s">
-        <v>50</v>
-      </c>
+      <c r="A248"/>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -4057,12 +4066,12 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -4071,12 +4080,12 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -4085,26 +4094,26 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -4113,18 +4122,18 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D254" t="s">
         <v>7</v>
@@ -4132,21 +4141,21 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -4155,12 +4164,12 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -4174,7 +4183,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -4188,7 +4197,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -4202,15 +4211,141 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
+        <v>14</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>100</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
         <v>4</v>
       </c>
-      <c r="B260" t="s">
-        <v>5</v>
-      </c>
-      <c r="C260" t="s">
-        <v>9</v>
-      </c>
-      <c r="D260" t="s">
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>39</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>101</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>39</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>62</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>9</v>
+      </c>
+      <c r="D268" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -122,6 +122,9 @@
     <t xml:space="preserve">UCB</t>
   </si>
   <si>
+    <t xml:space="preserve">Jazz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bayer</t>
   </si>
   <si>
@@ -260,6 +263,9 @@
     <t xml:space="preserve">Octa Consulting Services Ltd</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Southern Denmark</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cambridge University</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
     <t xml:space="preserve">Ono Pharmaceutical</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Augsburg</t>
+  </si>
+  <si>
     <t xml:space="preserve">One2Treat</t>
   </si>
   <si>
@@ -291,6 +300,9 @@
   </si>
   <si>
     <t xml:space="preserve">Swiss Group for Applied Cancer Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperial College London</t>
   </si>
   <si>
     <t xml:space="preserve">Regulator USA (FDA)</t>
@@ -1034,12 +1046,12 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1048,12 +1060,12 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1062,18 +1074,18 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1087,10 +1099,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1101,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1112,24 +1124,24 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1143,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -1160,12 +1172,12 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1179,21 +1191,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1202,40 +1214,40 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1244,12 +1256,12 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1258,49 +1270,49 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1311,21 +1323,21 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -1333,16 +1345,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -1356,12 +1368,12 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1370,40 +1382,40 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1417,7 +1429,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1431,21 +1443,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -1454,15 +1466,15 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -1473,68 +1485,68 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
         <v>25</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
         <v>23</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-    </row>
     <row r="63">
-      <c r="A63" t="s">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
         <v>20</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64"/>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="65">
-      <c r="A65" t="s">
-        <v>20</v>
-      </c>
+      <c r="A65"/>
       <c r="B65" t="s">
         <v>5</v>
       </c>
@@ -1542,40 +1554,40 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1584,12 +1596,12 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1598,12 +1610,12 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -1612,12 +1624,12 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -1631,35 +1643,35 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -1668,12 +1680,12 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -1682,12 +1694,12 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -1696,7 +1708,7 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -1710,7 +1722,7 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -1729,77 +1741,77 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
         <v>59</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -1813,7 +1825,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -1822,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -1840,26 +1852,26 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87"/>
+      <c r="A87" t="s">
+        <v>62</v>
+      </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88"/>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
         <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>9</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -1867,7 +1879,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1881,35 +1893,35 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -1923,7 +1935,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1932,66 +1944,66 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96"/>
+      <c r="A96" t="s">
+        <v>53</v>
+      </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s">
-        <v>4</v>
-      </c>
+      <c r="A97"/>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2005,63 +2017,63 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2070,12 +2082,12 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -2089,7 +2101,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -2103,7 +2115,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -2112,21 +2124,21 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
@@ -2137,7 +2149,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -2145,63 +2157,63 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
         <v>70</v>
       </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
-        <v>12</v>
-      </c>
       <c r="D109" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2224,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -2243,30 +2255,30 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -2280,96 +2292,96 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2378,95 +2390,95 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
         <v>8</v>
       </c>
-      <c r="B130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131"/>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s">
-        <v>73</v>
-      </c>
+      <c r="A132"/>
       <c r="B132" t="s">
         <v>5</v>
       </c>
@@ -2474,26 +2486,26 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2502,12 +2514,12 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2516,12 +2528,12 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -2530,12 +2542,12 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -2549,7 +2561,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -2577,61 +2589,61 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>75</v>
+      </c>
+      <c r="B142" t="s">
         <v>12</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>19</v>
       </c>
-      <c r="D141" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142"/>
-      <c r="B142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143"/>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
         <v>23</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D143" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>50</v>
-      </c>
-      <c r="B143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2645,35 +2657,35 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D146" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2682,60 +2694,58 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s">
-        <v>15</v>
-      </c>
+      <c r="A151"/>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
         <v>18</v>
@@ -2743,38 +2753,38 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
         <v>9</v>
@@ -2785,27 +2795,27 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
@@ -2813,27 +2823,27 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
@@ -2841,7 +2851,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -2850,88 +2860,88 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
         <v>18</v>
@@ -2939,7 +2949,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -2952,42 +2962,42 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167"/>
-      <c r="B167"/>
-      <c r="C167"/>
-      <c r="D167"/>
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" t="s">
-        <v>28</v>
-      </c>
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -3001,7 +3011,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -3010,108 +3020,108 @@
         <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173"/>
-      <c r="B173"/>
-      <c r="C173"/>
-      <c r="D173"/>
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s">
-        <v>80</v>
-      </c>
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" t="s">
-        <v>29</v>
-      </c>
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
         <v>81</v>
       </c>
-      <c r="B176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" t="s">
-        <v>23</v>
-      </c>
-      <c r="D176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177"/>
-      <c r="B177"/>
-      <c r="C177"/>
-      <c r="D177"/>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s">
-        <v>14</v>
-      </c>
-      <c r="B179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" t="s">
-        <v>7</v>
-      </c>
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3125,77 +3135,77 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -3209,21 +3219,21 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -3232,26 +3242,26 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -3260,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
@@ -3279,30 +3289,30 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D192" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194">
@@ -3316,40 +3326,40 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -3358,40 +3368,40 @@
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
         <v>12</v>
       </c>
-      <c r="C198" t="s">
-        <v>9</v>
-      </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -3400,21 +3410,21 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -3422,30 +3432,32 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203"/>
+      <c r="A203" t="s">
+        <v>20</v>
+      </c>
       <c r="B203" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -3454,138 +3466,136 @@
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s">
-        <v>76</v>
-      </c>
+      <c r="A206"/>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -3594,40 +3604,40 @@
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D216" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -3636,26 +3646,26 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -3669,7 +3679,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -3678,12 +3688,12 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -3692,26 +3702,26 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -3725,7 +3735,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -3734,12 +3744,12 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -3748,26 +3758,26 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -3776,12 +3786,12 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -3790,24 +3800,32 @@
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229"/>
-      <c r="B229"/>
-      <c r="C229"/>
-      <c r="D229"/>
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
@@ -3815,7 +3833,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -3824,54 +3842,46 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>5</v>
-      </c>
-      <c r="C233" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" t="s">
-        <v>18</v>
-      </c>
+      <c r="A233"/>
+      <c r="B233"/>
+      <c r="C233"/>
+      <c r="D233"/>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -3880,15 +3890,15 @@
         <v>19</v>
       </c>
       <c r="D235" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B236" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
@@ -3899,13 +3909,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D237" t="s">
         <v>18</v>
@@ -3913,7 +3923,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -3922,60 +3932,68 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239"/>
-      <c r="B239"/>
-      <c r="C239"/>
-      <c r="D239"/>
+      <c r="A239" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -3984,57 +4002,49 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s">
-        <v>97</v>
-      </c>
-      <c r="B244" t="s">
-        <v>5</v>
-      </c>
-      <c r="C244" t="s">
-        <v>9</v>
-      </c>
-      <c r="D244" t="s">
-        <v>7</v>
-      </c>
+      <c r="A244"/>
+      <c r="B244"/>
+      <c r="C244"/>
+      <c r="D244"/>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
         <v>12</v>
       </c>
-      <c r="C245" t="s">
-        <v>9</v>
-      </c>
       <c r="D245" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
@@ -4044,20 +4054,22 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248"/>
+      <c r="A248" t="s">
+        <v>20</v>
+      </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -4066,82 +4078,80 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C250" t="s">
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s">
-        <v>52</v>
-      </c>
+      <c r="A253"/>
       <c r="B253" t="s">
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -4155,7 +4165,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -4164,26 +4174,26 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -4192,26 +4202,26 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -4220,12 +4230,12 @@
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -4239,7 +4249,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4248,12 +4258,12 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -4262,18 +4272,18 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D264" t="s">
         <v>18</v>
@@ -4281,7 +4291,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -4290,12 +4300,12 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -4318,12 +4328,12 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -4332,20 +4342,90 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
+        <v>105</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>40</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>63</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>9</v>
+      </c>
+      <c r="D271" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
         <v>4</v>
       </c>
-      <c r="B269" t="s">
-        <v>5</v>
-      </c>
-      <c r="C269" t="s">
-        <v>9</v>
-      </c>
-      <c r="D269" t="s">
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>9</v>
+      </c>
+      <c r="D272" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>8</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -101,6 +101,12 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Sobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayer</t>
+  </si>
+  <si>
     <t xml:space="preserve">India</t>
   </si>
   <si>
@@ -125,12 +131,12 @@
     <t xml:space="preserve">Jazz</t>
   </si>
   <si>
-    <t xml:space="preserve">Bayer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Boehringer Ingelheim</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACOMED</t>
   </si>
   <si>
@@ -173,21 +179,24 @@
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
+    <t xml:space="preserve">Regulator Finland (FIMEA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
     <t xml:space="preserve">AstraZeneca</t>
   </si>
   <si>
-    <t xml:space="preserve">Sobi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pharmalex</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
-    <t xml:space="preserve">Boehringer Ingelheim</t>
-  </si>
-  <si>
     <t xml:space="preserve">Medical University of Vienna</t>
   </si>
   <si>
@@ -257,6 +266,9 @@
     <t xml:space="preserve">iOMEDICO</t>
   </si>
   <si>
+    <t xml:space="preserve">Berry Consultants</t>
+  </si>
+  <si>
     <t xml:space="preserve">University of Periyar, Salem</t>
   </si>
   <si>
@@ -284,6 +296,9 @@
     <t xml:space="preserve">University of Augsburg</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Zurich</t>
+  </si>
+  <si>
     <t xml:space="preserve">One2Treat</t>
   </si>
   <si>
@@ -306,9 +321,6 @@
   </si>
   <si>
     <t xml:space="preserve">Regulator USA (FDA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulator</t>
   </si>
   <si>
     <t xml:space="preserve">ClinChoice</t>
@@ -899,7 +911,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -908,12 +920,12 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -922,35 +934,35 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -975,43 +987,43 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1020,11 +1032,13 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27"/>
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -1032,12 +1046,12 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1046,13 +1060,11 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
+      <c r="A29"/>
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -1060,12 +1072,12 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1079,7 +1091,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1088,26 +1100,26 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1116,40 +1128,40 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1158,49 +1170,49 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -1211,21 +1223,21 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -1233,21 +1245,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1256,12 +1268,12 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1270,40 +1282,40 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1312,21 +1324,21 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -1337,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -1345,35 +1357,35 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1382,40 +1394,40 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1424,12 +1436,12 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1443,16 +1455,16 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -1460,21 +1472,21 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -1485,7 +1497,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -1499,41 +1511,49 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1542,16 +1562,18 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65"/>
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -1559,35 +1581,35 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1596,13 +1618,11 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s">
-        <v>53</v>
-      </c>
+      <c r="A69"/>
       <c r="B69" t="s">
         <v>5</v>
       </c>
@@ -1610,12 +1630,12 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -1624,18 +1644,18 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -1643,7 +1663,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -1652,26 +1672,26 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -1685,7 +1705,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -1699,7 +1719,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -1708,26 +1728,26 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -1736,12 +1756,12 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -1755,35 +1775,35 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -1792,46 +1812,46 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -1839,7 +1859,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1848,38 +1868,40 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88"/>
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1888,12 +1910,12 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1902,40 +1924,38 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
+      <c r="A92"/>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1944,12 +1964,12 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -1958,26 +1978,26 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -1986,24 +2006,26 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97"/>
+      <c r="A97" t="s">
+        <v>67</v>
+      </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2012,68 +2034,66 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s">
-        <v>20</v>
-      </c>
+      <c r="A101"/>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2082,26 +2102,26 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -2110,26 +2130,26 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2138,54 +2158,54 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2194,54 +2214,54 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2250,40 +2270,40 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -2297,7 +2317,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -2306,54 +2326,54 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2362,26 +2382,26 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2390,68 +2410,68 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
         <v>12</v>
       </c>
-      <c r="C128" t="s">
-        <v>9</v>
-      </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -2460,30 +2480,32 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132"/>
+      <c r="A132" t="s">
+        <v>42</v>
+      </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -2491,21 +2513,21 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2514,12 +2536,12 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2528,18 +2550,16 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s">
-        <v>14</v>
-      </c>
+      <c r="A136"/>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -2547,21 +2567,21 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -2570,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -2584,12 +2604,12 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -2598,52 +2618,54 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143"/>
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2652,54 +2674,52 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147"/>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
         <v>23</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -2708,26 +2728,26 @@
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2736,66 +2756,68 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151"/>
+      <c r="A151" t="s">
+        <v>52</v>
+      </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
         <v>12</v>
       </c>
-      <c r="C154" t="s">
-        <v>9</v>
-      </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -2804,13 +2826,11 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s">
-        <v>40</v>
-      </c>
+      <c r="A156"/>
       <c r="B156" t="s">
         <v>5</v>
       </c>
@@ -2818,21 +2838,21 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -2846,26 +2866,26 @@
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -2879,7 +2899,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -2888,12 +2908,12 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -2902,26 +2922,26 @@
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
         <v>12</v>
       </c>
-      <c r="C163" t="s">
-        <v>9</v>
-      </c>
       <c r="D163" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -2930,35 +2950,35 @@
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="167">
@@ -2969,7 +2989,7 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
         <v>18</v>
@@ -2977,55 +2997,63 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169"/>
-      <c r="B169"/>
-      <c r="C169"/>
-      <c r="D169"/>
+      <c r="A169" t="s">
+        <v>58</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -3034,46 +3062,54 @@
         <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B174" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175"/>
-      <c r="B175"/>
-      <c r="C175"/>
-      <c r="D175"/>
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -3082,46 +3118,54 @@
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179"/>
-      <c r="B179"/>
-      <c r="C179"/>
-      <c r="D179"/>
+      <c r="A179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" t="s">
+        <v>45</v>
+      </c>
+      <c r="C179" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3130,12 +3174,12 @@
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -3144,68 +3188,68 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -3219,10 +3263,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -3233,49 +3277,49 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -3284,26 +3328,26 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -3312,12 +3356,12 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -3326,12 +3370,12 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3340,68 +3384,68 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -3410,18 +3454,18 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -3432,72 +3476,74 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D204" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>91</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
         <v>20</v>
       </c>
-      <c r="B205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C205" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206"/>
       <c r="B206" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -3506,12 +3552,12 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B208" t="s">
         <v>12</v>
@@ -3520,43 +3566,43 @@
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
@@ -3567,7 +3613,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -3576,26 +3622,24 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s">
-        <v>90</v>
-      </c>
+      <c r="A213"/>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C213" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D213" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -3604,68 +3648,68 @@
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -3679,77 +3723,77 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D220" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -3758,26 +3802,26 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -3791,7 +3835,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -3800,12 +3844,12 @@
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -3819,7 +3863,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -3828,12 +3872,12 @@
         <v>19</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -3842,12 +3886,12 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -3856,46 +3900,54 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233"/>
-      <c r="B233"/>
-      <c r="C233"/>
-      <c r="D233"/>
+      <c r="A233" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -3904,40 +3956,40 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D238" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -3946,88 +3998,96 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B241" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244"/>
-      <c r="B244"/>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="A244" t="s">
+        <v>42</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D245" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -4041,7 +4101,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -4050,29 +4110,29 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D248" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
@@ -4083,30 +4143,30 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D250" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
@@ -4114,30 +4174,32 @@
         <v>14</v>
       </c>
       <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>104</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
         <v>12</v>
       </c>
-      <c r="C252" t="s">
-        <v>9</v>
-      </c>
-      <c r="D252" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253"/>
-      <c r="B253" t="s">
-        <v>5</v>
-      </c>
-      <c r="C253" t="s">
-        <v>23</v>
-      </c>
       <c r="D253" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -4146,12 +4208,12 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -4165,7 +4227,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -4174,40 +4236,40 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C258" t="s">
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -4221,10 +4283,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C260" t="s">
         <v>9</v>
@@ -4234,22 +4296,20 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s">
-        <v>8</v>
-      </c>
+      <c r="A261"/>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D261" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4258,12 +4318,12 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -4272,12 +4332,12 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -4286,26 +4346,26 @@
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -4314,26 +4374,26 @@
         <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D267" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -4347,13 +4407,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D269" t="s">
         <v>18</v>
@@ -4361,7 +4421,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -4370,12 +4430,12 @@
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -4403,7 +4463,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -4412,20 +4472,132 @@
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
+        <v>108</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
         <v>4</v>
       </c>
-      <c r="B274" t="s">
-        <v>5</v>
-      </c>
-      <c r="C274" t="s">
-        <v>9</v>
-      </c>
-      <c r="D274" t="s">
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>42</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>109</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>42</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>9</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>66</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>8</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">Academia</t>
   </si>
   <si>
+    <t xml:space="preserve">CRISPR Therapeutics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Novo Nordisk</t>
   </si>
   <si>
@@ -273,6 +276,9 @@
   </si>
   <si>
     <t xml:space="preserve">Octa Consulting Services Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory</t>
   </si>
   <si>
     <t xml:space="preserve">University of Southern Denmark</t>
@@ -833,94 +839,94 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -934,12 +940,12 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -948,12 +954,12 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -962,21 +968,21 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -990,7 +996,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1004,7 +1010,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1015,29 +1021,29 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1046,12 +1052,12 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1060,11 +1066,13 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29"/>
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -1076,9 +1084,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
+      <c r="A30"/>
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -1086,12 +1092,12 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1100,12 +1106,12 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1119,7 +1125,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1128,12 +1134,12 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1142,18 +1148,18 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1161,7 +1167,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1170,82 +1176,82 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1254,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1265,21 +1271,21 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1287,21 +1293,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1315,21 +1321,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1338,26 +1344,26 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1366,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -1377,15 +1383,15 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1394,40 +1400,40 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1436,40 +1442,40 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1478,12 +1484,12 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1497,21 +1503,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1520,29 +1526,27 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
+      <c r="A62"/>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -1553,7 +1557,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1567,49 +1571,49 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1618,16 +1622,18 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69"/>
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -1635,35 +1641,35 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -1672,13 +1678,11 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>58</v>
-      </c>
+      <c r="A73"/>
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -1686,12 +1690,12 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -1700,18 +1704,18 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1719,7 +1723,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -1728,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -1739,15 +1743,15 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -1761,7 +1765,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -1775,7 +1779,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -1784,26 +1788,26 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -1812,12 +1816,12 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -1831,35 +1835,35 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1868,46 +1872,46 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -1915,7 +1919,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1924,38 +1928,40 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92"/>
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1964,12 +1970,12 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -1978,35 +1984,33 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
+      <c r="A96"/>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -2020,12 +2024,12 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2034,26 +2038,26 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2062,24 +2066,26 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101"/>
+      <c r="A101" t="s">
+        <v>68</v>
+      </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2088,68 +2094,66 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s">
-        <v>20</v>
-      </c>
+      <c r="A105"/>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2158,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -2172,26 +2176,26 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -2200,68 +2204,68 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
         <v>71</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" t="s">
-        <v>23</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2275,21 +2279,21 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2298,82 +2302,82 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2382,26 +2386,26 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2410,32 +2414,32 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -2443,21 +2447,21 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -2466,12 +2470,12 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -2480,29 +2484,29 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
@@ -2513,21 +2517,21 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2536,83 +2540,85 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136"/>
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
@@ -2623,21 +2629,21 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -2646,12 +2652,12 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -2660,66 +2666,66 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s">
-        <v>20</v>
-      </c>
+      <c r="A144"/>
       <c r="B144" t="s">
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147"/>
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -2728,12 +2734,12 @@
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -2742,12 +2748,12 @@
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2756,26 +2762,26 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -2784,12 +2790,12 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -2798,35 +2804,35 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -2835,38 +2841,38 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159">
@@ -2874,66 +2880,66 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -2941,21 +2947,21 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -2964,13 +2970,11 @@
         <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s">
-        <v>14</v>
-      </c>
+      <c r="A166"/>
       <c r="B166" t="s">
         <v>5</v>
       </c>
@@ -2978,110 +2982,110 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
         <v>12</v>
       </c>
-      <c r="C168" t="s">
-        <v>9</v>
-      </c>
       <c r="D168" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -3090,12 +3094,12 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -3104,12 +3108,12 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -3118,110 +3122,110 @@
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B179" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -3230,7 +3234,7 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -3244,12 +3248,12 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -3263,63 +3267,63 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C189" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -3328,40 +3332,40 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -3370,12 +3374,12 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3384,12 +3388,12 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -3398,63 +3402,63 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
@@ -3465,15 +3469,15 @@
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -3482,40 +3486,40 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -3524,12 +3528,12 @@
         <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3538,12 +3542,12 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -3552,40 +3556,40 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3594,12 +3598,12 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -3608,66 +3612,68 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213"/>
       <c r="B213" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -3676,43 +3682,43 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
@@ -3723,30 +3729,30 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -3760,40 +3766,38 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s">
-        <v>96</v>
-      </c>
+      <c r="A224"/>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -3802,26 +3806,26 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -3830,60 +3834,60 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D228" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
@@ -3891,21 +3895,21 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -3914,40 +3918,40 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -3956,12 +3960,12 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -3970,26 +3974,26 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -3998,12 +4002,12 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -4012,54 +4016,54 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4073,21 +4077,21 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -4101,77 +4105,77 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="B249" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D251" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -4180,32 +4184,32 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
         <v>18</v>
@@ -4213,10 +4217,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
@@ -4227,21 +4231,21 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D256" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -4255,89 +4259,91 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D258" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C260" t="s">
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261"/>
+      <c r="A261" t="s">
+        <v>62</v>
+      </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C262" t="s">
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -4351,13 +4357,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D265" t="s">
         <v>10</v>
@@ -4365,35 +4371,35 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D266" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -4407,7 +4413,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -4416,12 +4422,12 @@
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -4430,35 +4436,35 @@
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C271" t="s">
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D272" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
@@ -4466,32 +4472,30 @@
         <v>14</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C273" t="s">
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s">
-        <v>108</v>
-      </c>
+      <c r="A274"/>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -4500,12 +4504,12 @@
         <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4519,35 +4523,35 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D278" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4556,26 +4560,26 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D280" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -4584,20 +4588,216 @@
         <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>59</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>21</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
         <v>4</v>
       </c>
-      <c r="B282" t="s">
-        <v>5</v>
-      </c>
-      <c r="C282" t="s">
-        <v>9</v>
-      </c>
-      <c r="D282" t="s">
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>14</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>110</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>43</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>111</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>43</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>67</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>9</v>
+      </c>
+      <c r="D295" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -74,6 +74,12 @@
     <t xml:space="preserve">Academia</t>
   </si>
   <si>
+    <t xml:space="preserve">Bayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRISPR Therapeutics</t>
   </si>
   <si>
@@ -107,9 +113,6 @@
     <t xml:space="preserve">Sobi</t>
   </si>
   <si>
-    <t xml:space="preserve">Bayer</t>
-  </si>
-  <si>
     <t xml:space="preserve">India</t>
   </si>
   <si>
@@ -179,9 +182,6 @@
     <t xml:space="preserve">GSK</t>
   </si>
   <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regulator Finland (FIMEA)</t>
   </si>
   <si>
@@ -200,6 +200,12 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">Valos SRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfasigma</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medical University of Vienna</t>
   </si>
   <si>
@@ -267,6 +273,9 @@
   </si>
   <si>
     <t xml:space="preserve">iOMEDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobel Biocare</t>
   </si>
   <si>
     <t xml:space="preserve">Berry Consultants</t>
@@ -839,24 +848,24 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -867,21 +876,21 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -889,16 +898,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -909,24 +918,24 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -937,15 +946,15 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -954,12 +963,12 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -968,12 +977,12 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -982,21 +991,21 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1010,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1024,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1035,29 +1044,29 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1066,12 +1075,12 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1080,11 +1089,13 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30"/>
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -1096,9 +1107,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
+      <c r="A31"/>
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -1106,12 +1115,12 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1120,12 +1129,12 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1134,12 +1143,12 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1148,12 +1157,12 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1162,12 +1171,12 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1181,21 +1190,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1204,116 +1213,116 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -1321,16 +1330,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1344,12 +1353,12 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1358,21 +1367,21 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1383,15 +1392,15 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1400,12 +1409,12 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1414,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -1425,15 +1434,15 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1442,40 +1451,40 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1484,40 +1493,40 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1526,11 +1535,13 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62"/>
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
@@ -1538,71 +1549,69 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
         <v>31</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -1613,7 +1622,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1627,104 +1636,104 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73"/>
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>11</v>
-      </c>
+      <c r="A76"/>
       <c r="B76" t="s">
         <v>5</v>
       </c>
@@ -1732,12 +1741,12 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -1746,26 +1755,26 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -1774,12 +1783,12 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -1788,26 +1797,26 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -1816,12 +1825,12 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -1835,21 +1844,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -1858,12 +1867,12 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1877,7 +1886,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -1886,40 +1895,40 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
         <v>24</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1928,26 +1937,26 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
         <v>26</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -1975,16 +1984,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
         <v>65</v>
-      </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -1992,44 +2001,46 @@
         <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96"/>
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2038,26 +2049,26 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2066,7 +2077,7 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -2080,21 +2091,19 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s">
-        <v>43</v>
-      </c>
+      <c r="A102"/>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
@@ -2105,15 +2114,15 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -2122,11 +2131,13 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105"/>
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2150,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -2148,12 +2159,12 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2162,12 +2173,12 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2176,26 +2187,26 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -2204,40 +2215,38 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s">
-        <v>14</v>
-      </c>
+      <c r="A112"/>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2246,12 +2255,12 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2260,12 +2269,12 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2274,12 +2283,12 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -2288,68 +2297,68 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
         <v>24</v>
-      </c>
-      <c r="D118" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -2363,21 +2372,21 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2386,12 +2395,12 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2400,12 +2409,12 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2414,54 +2423,54 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>75</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
         <v>76</v>
       </c>
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>24</v>
-      </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -2470,18 +2479,18 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D130" t="s">
         <v>61</v>
@@ -2489,21 +2498,21 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B131" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -2512,26 +2521,26 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2540,26 +2549,26 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -2568,12 +2577,12 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -2582,32 +2591,32 @@
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -2615,49 +2624,49 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -2666,11 +2675,13 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144"/>
+      <c r="A144" t="s">
+        <v>60</v>
+      </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
@@ -2678,26 +2689,26 @@
         <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -2711,63 +2722,63 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -2776,12 +2787,12 @@
         <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -2790,66 +2801,66 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s">
-        <v>21</v>
-      </c>
+      <c r="A153"/>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156"/>
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -2858,12 +2869,12 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -2872,12 +2883,12 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -2886,40 +2897,40 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -2928,12 +2939,12 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -2942,35 +2953,35 @@
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -2979,38 +2990,38 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169">
@@ -3018,66 +3029,66 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -3085,21 +3096,21 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -3108,13 +3119,11 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s">
-        <v>14</v>
-      </c>
+      <c r="A176"/>
       <c r="B176" t="s">
         <v>5</v>
       </c>
@@ -3122,110 +3131,110 @@
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
         <v>12</v>
       </c>
-      <c r="C178" t="s">
-        <v>9</v>
-      </c>
       <c r="D178" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -3234,12 +3243,12 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -3248,12 +3257,12 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -3262,124 +3271,124 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D191" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3402,12 +3411,12 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -3421,63 +3430,63 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -3486,40 +3495,40 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -3528,12 +3537,12 @@
         <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3542,12 +3551,12 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -3556,82 +3565,82 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D210" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -3640,40 +3649,40 @@
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -3682,12 +3691,12 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -3696,12 +3705,12 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -3710,40 +3719,40 @@
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -3752,12 +3761,12 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -3766,66 +3775,68 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224"/>
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
       <c r="B224" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -3834,40 +3845,40 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -3876,18 +3887,18 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
@@ -3895,21 +3906,21 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C232" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -3918,54 +3929,52 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s">
-        <v>99</v>
-      </c>
+      <c r="A236"/>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D236" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -3979,21 +3988,21 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -4002,60 +4011,60 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D243" t="s">
         <v>7</v>
@@ -4063,21 +4072,21 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -4086,21 +4095,21 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247">
@@ -4114,12 +4123,12 @@
         <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -4128,12 +4137,12 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -4142,12 +4151,12 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -4156,18 +4165,18 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D251" t="s">
         <v>7</v>
@@ -4175,7 +4184,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -4184,12 +4193,12 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -4198,29 +4207,29 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D254" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
@@ -4231,21 +4240,21 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -4259,13 +4268,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D258" t="s">
         <v>18</v>
@@ -4273,21 +4282,21 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -4296,35 +4305,35 @@
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B262" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C262" t="s">
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263">
@@ -4335,15 +4344,15 @@
         <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D263" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -4352,12 +4361,12 @@
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -4366,54 +4375,54 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D266" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -4422,7 +4431,7 @@
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
@@ -4433,83 +4442,85 @@
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C271" t="s">
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274"/>
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C274" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D275" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4518,12 +4529,12 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -4537,7 +4548,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -4546,12 +4557,12 @@
         <v>12</v>
       </c>
       <c r="D278" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4560,18 +4571,18 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D280" t="s">
         <v>7</v>
@@ -4579,7 +4590,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -4588,12 +4599,12 @@
         <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -4602,7 +4613,7 @@
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
@@ -4610,60 +4621,58 @@
         <v>59</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C283" t="s">
         <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D284" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
       </c>
       <c r="D285" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s">
-        <v>14</v>
-      </c>
+      <c r="A286"/>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D286" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -4672,12 +4681,12 @@
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -4686,12 +4695,12 @@
         <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -4700,26 +4709,26 @@
         <v>9</v>
       </c>
       <c r="D289" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D290" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -4728,26 +4737,26 @@
         <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -4756,12 +4765,12 @@
         <v>9</v>
       </c>
       <c r="D293" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -4775,7 +4784,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -4789,15 +4798,183 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>23</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
         <v>4</v>
       </c>
-      <c r="B296" t="s">
-        <v>5</v>
-      </c>
-      <c r="C296" t="s">
-        <v>9</v>
-      </c>
-      <c r="D296" t="s">
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>14</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>9</v>
+      </c>
+      <c r="D298" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>113</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>44</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>9</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>114</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>44</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>9</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>69</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>8</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -260,6 +260,9 @@
     <t xml:space="preserve">University Hospital Basel</t>
   </si>
   <si>
+    <t xml:space="preserve">Aptuit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leibniz Institute for Prevention Research and Epidemiology - BIPS, Bremen</t>
   </si>
   <si>
@@ -351,6 +354,9 @@
   </si>
   <si>
     <t xml:space="preserve">Basel Academy for Quality and Research in Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anavex Life Sciences</t>
   </si>
   <si>
     <t xml:space="preserve">Critical Path Institute</t>
@@ -2568,21 +2574,21 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -2591,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138">
@@ -2605,32 +2611,32 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -2638,77 +2644,77 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -2717,109 +2723,109 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D151" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
         <v>8</v>
       </c>
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153"/>
-      <c r="B153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="154">
-      <c r="A154" t="s">
-        <v>80</v>
-      </c>
+      <c r="A154"/>
       <c r="B154" t="s">
         <v>5</v>
       </c>
@@ -2827,26 +2833,26 @@
         <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -2855,12 +2861,12 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -2869,12 +2875,12 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -2883,12 +2889,12 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -2902,7 +2908,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -2911,35 +2917,35 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163">
@@ -2958,61 +2964,61 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
         <v>81</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>12</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>19</v>
       </c>
-      <c r="D165" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166"/>
-      <c r="B166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167"/>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
         <v>26</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -3021,12 +3027,12 @@
         <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -3040,13 +3046,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
@@ -3054,63 +3060,63 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D171" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -3119,44 +3125,44 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176"/>
+      <c r="A176" t="s">
+        <v>77</v>
+      </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s">
-        <v>15</v>
-      </c>
+      <c r="A178"/>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
@@ -3164,38 +3170,38 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -3206,27 +3212,27 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -3234,27 +3240,27 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -3262,7 +3268,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -3271,88 +3277,88 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D192" t="s">
         <v>18</v>
@@ -3360,7 +3366,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -3374,44 +3380,44 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -3430,21 +3436,21 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -3453,26 +3459,26 @@
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B200" t="s">
         <v>47</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3481,82 +3487,82 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D202" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -3565,12 +3571,12 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -3584,86 +3590,86 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B211" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D212" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215">
@@ -3682,10 +3688,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -3696,7 +3702,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -3705,12 +3711,12 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -3719,21 +3725,21 @@
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220">
@@ -3747,26 +3753,26 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -3775,26 +3781,26 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -3803,68 +3809,68 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D228" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -3873,7 +3879,7 @@
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230">
@@ -3887,21 +3893,21 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232">
@@ -3909,41 +3915,41 @@
         <v>23</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="235">
@@ -3957,24 +3963,26 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236"/>
+      <c r="A236" t="s">
+        <v>4</v>
+      </c>
       <c r="B236" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -3983,26 +3991,24 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s">
-        <v>11</v>
-      </c>
+      <c r="A238"/>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -4011,18 +4017,18 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
         <v>10</v>
@@ -4030,77 +4036,77 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D245" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -4109,54 +4115,54 @@
         <v>12</v>
       </c>
       <c r="D246" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D249" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -4165,12 +4171,12 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -4179,7 +4185,7 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
@@ -4193,12 +4199,12 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -4207,26 +4213,26 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -4235,26 +4241,26 @@
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -4268,7 +4274,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -4277,26 +4283,26 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -4305,26 +4311,26 @@
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4333,26 +4339,26 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -4361,32 +4367,32 @@
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D265" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D266" t="s">
         <v>18</v>
@@ -4394,30 +4400,30 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D268" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269">
@@ -4425,7 +4431,7 @@
         <v>44</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
@@ -4442,15 +4448,15 @@
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D270" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -4459,63 +4465,63 @@
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D272" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B274" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D275" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="276">
@@ -4523,46 +4529,46 @@
         <v>11</v>
       </c>
       <c r="B276" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C276" t="s">
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D277" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
       </c>
       <c r="C278" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4571,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -4582,10 +4588,10 @@
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="281">
@@ -4599,12 +4605,12 @@
         <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -4618,27 +4624,27 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B283" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C283" t="s">
         <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D284" t="s">
         <v>7</v>
@@ -4646,7 +4652,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B285" t="s">
         <v>12</v>
@@ -4655,52 +4661,52 @@
         <v>9</v>
       </c>
       <c r="D285" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286"/>
+      <c r="A286" t="s">
+        <v>96</v>
+      </c>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D286" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C287" t="s">
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s">
-        <v>17</v>
-      </c>
+      <c r="A288"/>
       <c r="B288" t="s">
         <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D288" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -4714,21 +4720,21 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D290" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -4737,12 +4743,12 @@
         <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -4751,12 +4757,12 @@
         <v>12</v>
       </c>
       <c r="D292" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -4765,26 +4771,26 @@
         <v>9</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D294" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -4793,12 +4799,12 @@
         <v>9</v>
       </c>
       <c r="D295" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -4812,7 +4818,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -4826,7 +4832,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -4835,12 +4841,12 @@
         <v>9</v>
       </c>
       <c r="D298" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -4854,7 +4860,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -4863,32 +4869,32 @@
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
       </c>
       <c r="C301" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D301" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D302" t="s">
         <v>18</v>
@@ -4896,7 +4902,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -4905,12 +4911,12 @@
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -4919,26 +4925,26 @@
         <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
       </c>
       <c r="C305" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D305" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -4947,12 +4953,12 @@
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -4966,15 +4972,57 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
+        <v>11</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
         <v>4</v>
       </c>
-      <c r="B308" t="s">
-        <v>5</v>
-      </c>
-      <c r="C308" t="s">
-        <v>9</v>
-      </c>
-      <c r="D308" t="s">
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>9</v>
+      </c>
+      <c r="D311" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -2350,21 +2350,21 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -2373,12 +2373,12 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2415,12 +2415,12 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2429,74 +2429,74 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
         <v>61</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2513,26 +2513,26 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -2541,7 +2541,7 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -2555,68 +2555,68 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -2625,68 +2625,68 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2695,12 +2695,12 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2709,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
@@ -2723,68 +2723,68 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -2801,64 +2801,64 @@
         <v>44</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154"/>
+      <c r="A154" t="s">
+        <v>44</v>
+      </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156"/>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
         <v>12</v>
-      </c>
-      <c r="D155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>44</v>
-      </c>
-      <c r="B156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C156" t="s">
-        <v>9</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
@@ -2866,21 +2866,21 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -2903,12 +2903,12 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -2917,12 +2917,12 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -2931,26 +2931,26 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -2959,53 +2959,55 @@
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167"/>
+      <c r="A167" t="s">
+        <v>30</v>
+      </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
@@ -3018,35 +3020,33 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s">
-        <v>55</v>
-      </c>
+      <c r="A169"/>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -3055,18 +3055,18 @@
         <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
         <v>13</v>
@@ -3074,77 +3074,77 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -3153,44 +3153,44 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178"/>
+      <c r="A178" t="s">
+        <v>77</v>
+      </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s">
-        <v>15</v>
-      </c>
+      <c r="A180"/>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
         <v>18</v>
@@ -3198,38 +3198,38 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -3240,27 +3240,27 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -3268,27 +3268,27 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -3305,88 +3305,88 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
         <v>18</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3408,44 +3408,44 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
@@ -3464,21 +3464,21 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3487,26 +3487,26 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B202" t="s">
         <v>47</v>
       </c>
       <c r="C202" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -3515,82 +3515,82 @@
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D204" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -3599,12 +3599,12 @@
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3618,86 +3618,86 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B213" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D214" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217">
@@ -3716,10 +3716,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -3739,12 +3739,12 @@
         <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -3753,21 +3753,21 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
@@ -3781,26 +3781,26 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -3809,26 +3809,26 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -3837,40 +3837,38 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s">
-        <v>44</v>
-      </c>
+      <c r="A227"/>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -3879,40 +3877,40 @@
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D231" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -3921,21 +3919,21 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="234">
@@ -3943,13 +3941,13 @@
         <v>23</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235">
@@ -3963,21 +3961,21 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -3985,30 +3983,32 @@
         <v>23</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238"/>
+      <c r="A238" t="s">
+        <v>23</v>
+      </c>
       <c r="B238" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -4017,54 +4017,52 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s">
-        <v>84</v>
-      </c>
+      <c r="A241"/>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D241" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B243" t="s">
         <v>12</v>
@@ -4073,12 +4071,12 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4087,12 +4085,12 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -4101,26 +4099,26 @@
         <v>19</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -4129,40 +4127,40 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D248" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -4171,40 +4169,40 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D252" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -4213,12 +4211,12 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -4227,12 +4225,12 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -4241,26 +4239,26 @@
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -4269,12 +4267,12 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -4283,26 +4281,26 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -4311,26 +4309,26 @@
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4344,7 +4342,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -4353,32 +4351,32 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D264" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D265" t="s">
         <v>7</v>
@@ -4386,7 +4384,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -4395,12 +4393,12 @@
         <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -4409,96 +4407,96 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D268" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D272" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D273" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -4507,46 +4505,46 @@
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D275" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B276" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C276" t="s">
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D277" t="s">
         <v>18</v>
@@ -4554,7 +4552,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -4563,46 +4561,46 @@
         <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D279" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C280" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D281" t="s">
         <v>18</v>
@@ -4610,7 +4608,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -4619,12 +4617,12 @@
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -4633,46 +4631,46 @@
         <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
       </c>
       <c r="D285" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D286" t="s">
         <v>7</v>
@@ -4680,53 +4678,55 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C287" t="s">
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288"/>
+      <c r="A288" t="s">
+        <v>111</v>
+      </c>
       <c r="B288" t="s">
         <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C289" t="s">
         <v>9</v>
       </c>
       <c r="D289" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D290" t="s">
         <v>7</v>
@@ -4734,35 +4734,33 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C291" t="s">
         <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s">
-        <v>36</v>
-      </c>
+      <c r="A292"/>
       <c r="B292" t="s">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D292" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -4771,18 +4769,18 @@
         <v>9</v>
       </c>
       <c r="D293" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D294" t="s">
         <v>7</v>
@@ -4790,7 +4788,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -4799,21 +4797,21 @@
         <v>9</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D296" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
@@ -4827,26 +4825,26 @@
         <v>9</v>
       </c>
       <c r="D297" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D298" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -4855,12 +4853,12 @@
         <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -4869,18 +4867,18 @@
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D301" t="s">
         <v>18</v>
@@ -4888,7 +4886,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -4911,12 +4909,12 @@
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -4925,12 +4923,12 @@
         <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -4944,7 +4942,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -4953,12 +4951,12 @@
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -4967,12 +4965,12 @@
         <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -4981,18 +4979,18 @@
         <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D309" t="s">
         <v>18</v>
@@ -5000,7 +4998,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -5009,20 +5007,76 @@
         <v>9</v>
       </c>
       <c r="D310" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
+        <v>69</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>9</v>
+      </c>
+      <c r="D311" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>11</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>9</v>
+      </c>
+      <c r="D312" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
         <v>4</v>
       </c>
-      <c r="B311" t="s">
-        <v>5</v>
-      </c>
-      <c r="C311" t="s">
-        <v>9</v>
-      </c>
-      <c r="D311" t="s">
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>8</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -161,9 +161,15 @@
     <t xml:space="preserve">Gilead</t>
   </si>
   <si>
+    <t xml:space="preserve">Sanofi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Karolinska</t>
   </si>
   <si>
+    <t xml:space="preserve">Viatris</t>
+  </si>
+  <si>
     <t xml:space="preserve">University of Goettingen</t>
   </si>
   <si>
@@ -221,9 +227,6 @@
     <t xml:space="preserve">Chiesi</t>
   </si>
   <si>
-    <t xml:space="preserve">Sanofi</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Basel</t>
   </si>
   <si>
@@ -266,9 +269,6 @@
     <t xml:space="preserve">Leibniz Institute for Prevention Research and Epidemiology - BIPS, Bremen</t>
   </si>
   <si>
-    <t xml:space="preserve">Viatris</t>
-  </si>
-  <si>
     <t xml:space="preserve">Czechia</t>
   </si>
   <si>
@@ -278,6 +278,9 @@
     <t xml:space="preserve">iOMEDICO</t>
   </si>
   <si>
+    <t xml:space="preserve">Cytel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nobel Biocare</t>
   </si>
   <si>
@@ -299,10 +302,10 @@
     <t xml:space="preserve">Cambridge University</t>
   </si>
   <si>
+    <t xml:space="preserve">Vrije Universiteit Brussel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ironwoodpharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytel</t>
   </si>
   <si>
     <t xml:space="preserve">Astellas</t>
@@ -1314,10 +1317,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -1331,18 +1334,18 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -1350,27 +1353,27 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -1378,21 +1381,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1415,40 +1418,40 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1457,12 +1460,12 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1471,26 +1474,26 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1499,40 +1502,40 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1541,40 +1544,40 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1583,11 +1586,13 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65"/>
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
@@ -1595,26 +1600,26 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -1623,13 +1628,11 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
+      <c r="A68"/>
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -1637,29 +1640,29 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -1670,7 +1673,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -1684,104 +1687,104 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76"/>
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s">
-        <v>11</v>
-      </c>
+      <c r="A79"/>
       <c r="B79" t="s">
         <v>5</v>
       </c>
@@ -1789,12 +1792,12 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -1803,26 +1806,26 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -1831,12 +1834,12 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -1845,26 +1848,26 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -1873,12 +1876,12 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1892,21 +1895,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -1915,12 +1918,12 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1929,12 +1932,12 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1948,21 +1951,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -1971,12 +1974,12 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1985,40 +1988,40 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2027,46 +2030,46 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2074,7 +2077,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2083,38 +2086,40 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102"/>
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2123,12 +2128,12 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -2137,40 +2142,38 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s">
-        <v>8</v>
-      </c>
+      <c r="A106"/>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2179,12 +2182,12 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2193,26 +2196,26 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -2221,12 +2224,12 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2235,38 +2238,40 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112"/>
+      <c r="A112" t="s">
+        <v>44</v>
+      </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2275,12 +2280,12 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2289,35 +2294,33 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s">
-        <v>8</v>
-      </c>
+      <c r="A116"/>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118">
@@ -2336,49 +2339,49 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -2387,40 +2390,40 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2429,12 +2432,12 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -2443,12 +2446,12 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -2457,32 +2460,32 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
@@ -2490,21 +2493,21 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2513,54 +2516,54 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2569,49 +2572,49 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -2630,7 +2633,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -2639,54 +2642,54 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2695,54 +2698,54 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -2751,82 +2754,82 @@
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
         <v>12</v>
       </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -2835,66 +2838,68 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156"/>
+      <c r="A156" t="s">
+        <v>34</v>
+      </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -2903,12 +2908,12 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -2917,40 +2922,38 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s">
-        <v>23</v>
-      </c>
+      <c r="A161"/>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -2959,26 +2962,26 @@
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -2987,7 +2990,7 @@
         <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -3006,34 +3009,36 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169"/>
+      <c r="A169" t="s">
+        <v>30</v>
+      </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
@@ -3060,7 +3065,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -3069,46 +3074,44 @@
         <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D172" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
         <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s">
-        <v>82</v>
-      </c>
+      <c r="A174"/>
       <c r="B174" t="s">
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D174" t="s">
         <v>31</v>
@@ -3116,21 +3119,21 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -3139,7 +3142,7 @@
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177">
@@ -3153,75 +3156,77 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D179" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180"/>
+      <c r="A180" t="s">
+        <v>83</v>
+      </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183">
@@ -3229,7 +3234,7 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -3240,21 +3245,21 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -3263,57 +3268,55 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s">
-        <v>28</v>
-      </c>
+      <c r="A186"/>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -3324,7 +3327,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -3333,82 +3336,82 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
         <v>12</v>
       </c>
-      <c r="C192" t="s">
-        <v>9</v>
-      </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -3417,40 +3420,40 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -3459,54 +3462,54 @@
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B202" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>26</v>
       </c>
       <c r="D202" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -3520,35 +3523,35 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B204" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3557,54 +3560,54 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D209" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3613,18 +3616,18 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
@@ -3632,7 +3635,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -3641,7 +3644,7 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
@@ -3649,60 +3652,60 @@
         <v>23</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B215" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D216" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -3711,15 +3714,15 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -3730,7 +3733,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -3744,7 +3747,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -3758,63 +3761,63 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D222" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D224" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -3823,44 +3826,46 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227"/>
+      <c r="A227" t="s">
+        <v>8</v>
+      </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
@@ -3868,7 +3873,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -3877,46 +3882,46 @@
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D232" t="s">
         <v>13</v>
@@ -3933,7 +3938,7 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234">
@@ -3952,7 +3957,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -3966,49 +3971,49 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D238" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -4017,38 +4022,40 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241"/>
+      <c r="A241" t="s">
+        <v>88</v>
+      </c>
       <c r="B241" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D241" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -4057,26 +4064,26 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4090,30 +4097,30 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247">
@@ -4121,7 +4128,7 @@
         <v>44</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
@@ -4132,30 +4139,30 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250">
@@ -4169,7 +4176,7 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
@@ -4180,29 +4187,27 @@
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D251" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s">
-        <v>102</v>
-      </c>
+      <c r="A252"/>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D252" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -4211,26 +4216,26 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -4244,35 +4249,35 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -4281,12 +4286,12 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -4295,26 +4300,26 @@
         <v>19</v>
       </c>
       <c r="D259" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -4323,54 +4328,54 @@
         <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
       </c>
       <c r="C262" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D263" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
+        <v>104</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" t="s">
         <v>105</v>
-      </c>
-      <c r="B264" t="s">
-        <v>5</v>
-      </c>
-      <c r="C264" t="s">
-        <v>6</v>
-      </c>
-      <c r="D264" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -4379,12 +4384,12 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -4407,26 +4412,26 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -4435,35 +4440,35 @@
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D270" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -4471,7 +4476,7 @@
         <v>44</v>
       </c>
       <c r="B272" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C272" t="s">
         <v>9</v>
@@ -4482,21 +4487,21 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -4505,21 +4510,21 @@
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D275" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276">
@@ -4533,12 +4538,12 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -4547,12 +4552,12 @@
         <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -4561,12 +4566,12 @@
         <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4575,82 +4580,82 @@
         <v>19</v>
       </c>
       <c r="D279" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B280" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C280" t="s">
         <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D282" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C283" t="s">
         <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D284" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -4659,26 +4664,26 @@
         <v>9</v>
       </c>
       <c r="D285" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -4687,12 +4692,12 @@
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -4701,43 +4706,43 @@
         <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C289" t="s">
         <v>9</v>
       </c>
       <c r="D289" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C291" t="s">
         <v>9</v>
@@ -4747,34 +4752,36 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292"/>
+      <c r="A292" t="s">
+        <v>20</v>
+      </c>
       <c r="B292" t="s">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D293" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -4783,12 +4790,12 @@
         <v>9</v>
       </c>
       <c r="D294" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -4802,7 +4809,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -4811,12 +4818,12 @@
         <v>12</v>
       </c>
       <c r="D296" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -4825,18 +4832,18 @@
         <v>9</v>
       </c>
       <c r="D297" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D298" t="s">
         <v>7</v>
@@ -4844,7 +4851,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -4853,12 +4860,12 @@
         <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -4867,82 +4874,80 @@
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C301" t="s">
         <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D302" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C303" t="s">
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s">
-        <v>14</v>
-      </c>
+      <c r="A304"/>
       <c r="B304" t="s">
         <v>5</v>
       </c>
       <c r="C304" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D304" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D305" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -4951,12 +4956,12 @@
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -4965,46 +4970,46 @@
         <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
       </c>
       <c r="C308" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D309" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D310" t="s">
         <v>7</v>
@@ -5012,7 +5017,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -5021,12 +5026,12 @@
         <v>9</v>
       </c>
       <c r="D311" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -5035,12 +5040,12 @@
         <v>9</v>
       </c>
       <c r="D312" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -5054,7 +5059,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -5077,6 +5082,188 @@
         <v>9</v>
       </c>
       <c r="D315" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>115</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>116</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>44</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>117</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>44</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>49</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>9</v>
+      </c>
+      <c r="D323" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>11</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>9</v>
+      </c>
+      <c r="D325" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>8</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>9</v>
+      </c>
+      <c r="D326" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>95</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>19</v>
+      </c>
+      <c r="D327" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>9</v>
+      </c>
+      <c r="D328" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -242,6 +242,12 @@
     <t xml:space="preserve">Pharmalog</t>
   </si>
   <si>
+    <t xml:space="preserve">Cytel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ecker+Exker</t>
   </si>
   <si>
@@ -254,6 +260,9 @@
     <t xml:space="preserve">Numerus</t>
   </si>
   <si>
+    <t xml:space="preserve">Astellas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
@@ -278,9 +287,6 @@
     <t xml:space="preserve">iOMEDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">Cytel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nobel Biocare</t>
   </si>
   <si>
@@ -306,9 +312,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ironwoodpharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astellas</t>
   </si>
   <si>
     <t xml:space="preserve">Ono Pharmaceutical</t>
@@ -2541,10 +2544,10 @@
         <v>5</v>
       </c>
       <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
         <v>77</v>
-      </c>
-      <c r="D133" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -2555,57 +2558,57 @@
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D134" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -2628,7 +2631,7 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
@@ -2647,49 +2650,49 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2698,7 +2701,7 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145">
@@ -2712,68 +2715,68 @@
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B146" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2782,35 +2785,35 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
@@ -2824,68 +2827,68 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -2902,64 +2905,64 @@
         <v>44</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161"/>
+      <c r="A161" t="s">
+        <v>44</v>
+      </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163"/>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
         <v>12</v>
-      </c>
-      <c r="D162" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>44</v>
-      </c>
-      <c r="B163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" t="s">
-        <v>9</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -2967,21 +2970,21 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -3004,12 +3007,12 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -3018,12 +3021,12 @@
         <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -3032,26 +3035,26 @@
         <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -3060,53 +3063,55 @@
         <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174"/>
+      <c r="A174" t="s">
+        <v>30</v>
+      </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
@@ -3119,35 +3124,33 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s">
-        <v>57</v>
-      </c>
+      <c r="A176"/>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -3156,12 +3159,12 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -3170,18 +3173,18 @@
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
         <v>13</v>
@@ -3189,77 +3192,77 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -3268,44 +3271,44 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186"/>
+      <c r="A186" t="s">
+        <v>80</v>
+      </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s">
-        <v>15</v>
-      </c>
+      <c r="A188"/>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
         <v>18</v>
@@ -3313,38 +3316,38 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
@@ -3355,27 +3358,27 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -3383,27 +3386,27 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
@@ -3411,7 +3414,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -3420,88 +3423,88 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D202" t="s">
         <v>18</v>
@@ -3509,21 +3512,21 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -3532,49 +3535,49 @@
         <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
@@ -3593,21 +3596,21 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3616,26 +3619,26 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B211" t="s">
         <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -3644,96 +3647,96 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D213" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B215" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D216" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -3742,12 +3745,12 @@
         <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -3761,86 +3764,86 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B223" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D224" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227">
@@ -3859,10 +3862,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -3873,7 +3876,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -3882,12 +3885,12 @@
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -3896,12 +3899,12 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -3910,21 +3913,21 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233">
@@ -3938,26 +3941,26 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -3966,26 +3969,26 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -3994,26 +3997,26 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -4022,46 +4025,46 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" t="s">
         <v>18</v>
@@ -4069,21 +4072,21 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4092,12 +4095,12 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -4106,7 +4109,7 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246">
@@ -4120,21 +4123,21 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248">
@@ -4142,41 +4145,41 @@
         <v>23</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C250" t="s">
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="251">
@@ -4190,24 +4193,26 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252"/>
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
       <c r="B252" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -4216,26 +4221,24 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s">
-        <v>11</v>
-      </c>
+      <c r="A254"/>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C254" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D254" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -4244,18 +4247,18 @@
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D256" t="s">
         <v>10</v>
@@ -4263,77 +4266,77 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D258" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4342,54 +4345,54 @@
         <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -4398,12 +4401,12 @@
         <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -4412,7 +4415,7 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268">
@@ -4426,12 +4429,12 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -4440,26 +4443,26 @@
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -4468,26 +4471,26 @@
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -4501,7 +4504,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -4510,26 +4513,26 @@
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4538,26 +4541,26 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D277" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -4566,26 +4569,26 @@
         <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -4594,32 +4597,32 @@
         <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D281" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D282" t="s">
         <v>18</v>
@@ -4627,30 +4630,30 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B283" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C283" t="s">
         <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D284" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285">
@@ -4658,7 +4661,7 @@
         <v>44</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
@@ -4675,10 +4678,10 @@
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D286" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287">
@@ -4692,18 +4695,18 @@
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D288" t="s">
         <v>18</v>
@@ -4711,7 +4714,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -4720,68 +4723,68 @@
         <v>9</v>
       </c>
       <c r="D289" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D290" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B291" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C291" t="s">
         <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D292" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C293" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D293" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -4795,35 +4798,35 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D295" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D296" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -4832,7 +4835,7 @@
         <v>9</v>
       </c>
       <c r="D297" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298">
@@ -4843,10 +4846,10 @@
         <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="299">
@@ -4860,12 +4863,12 @@
         <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -4879,27 +4882,27 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C301" t="s">
         <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D302" t="s">
         <v>7</v>
@@ -4907,7 +4910,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B303" t="s">
         <v>12</v>
@@ -4916,52 +4919,52 @@
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304"/>
+      <c r="A304" t="s">
+        <v>76</v>
+      </c>
       <c r="B304" t="s">
         <v>5</v>
       </c>
       <c r="C304" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D304" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C305" t="s">
         <v>9</v>
       </c>
       <c r="D305" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s">
-        <v>17</v>
-      </c>
+      <c r="A306"/>
       <c r="B306" t="s">
         <v>5</v>
       </c>
       <c r="C306" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -4975,21 +4978,21 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
       </c>
       <c r="C308" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -4998,12 +5001,12 @@
         <v>9</v>
       </c>
       <c r="D309" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -5012,12 +5015,12 @@
         <v>12</v>
       </c>
       <c r="D310" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -5026,12 +5029,12 @@
         <v>9</v>
       </c>
       <c r="D311" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -5045,21 +5048,21 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D313" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -5068,12 +5071,12 @@
         <v>9</v>
       </c>
       <c r="D314" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -5087,7 +5090,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -5096,18 +5099,18 @@
         <v>9</v>
       </c>
       <c r="D316" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
       </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D317" t="s">
         <v>18</v>
@@ -5115,7 +5118,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -5129,7 +5132,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
@@ -5138,21 +5141,21 @@
         <v>9</v>
       </c>
       <c r="D319" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
       </c>
       <c r="C320" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321">
@@ -5163,7 +5166,7 @@
         <v>5</v>
       </c>
       <c r="C321" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D321" t="s">
         <v>18</v>
@@ -5171,7 +5174,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -5180,12 +5183,12 @@
         <v>9</v>
       </c>
       <c r="D322" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -5194,12 +5197,12 @@
         <v>9</v>
       </c>
       <c r="D323" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -5208,18 +5211,18 @@
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
       </c>
       <c r="C325" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D325" t="s">
         <v>18</v>
@@ -5227,7 +5230,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -5236,34 +5239,90 @@
         <v>9</v>
       </c>
       <c r="D326" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
       </c>
       <c r="C327" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D327" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>9</v>
+      </c>
+      <c r="D328" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
         <v>4</v>
       </c>
-      <c r="B328" t="s">
-        <v>5</v>
-      </c>
-      <c r="C328" t="s">
-        <v>9</v>
-      </c>
-      <c r="D328" t="s">
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>8</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>9</v>
+      </c>
+      <c r="D330" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>97</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>19</v>
+      </c>
+      <c r="D331" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -134,6 +134,12 @@
     <t xml:space="preserve">UCB</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Aberdeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astellas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jazz</t>
   </si>
   <si>
@@ -257,12 +263,15 @@
     <t xml:space="preserve">EORTC</t>
   </si>
   <si>
+    <t xml:space="preserve">Regulator USA (FDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numerus</t>
   </si>
   <si>
-    <t xml:space="preserve">Astellas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
@@ -299,9 +308,6 @@
     <t xml:space="preserve">Octa Consulting Services Ltd</t>
   </si>
   <si>
-    <t xml:space="preserve">Regulatory</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Southern Denmark</t>
   </si>
   <si>
@@ -342,9 +348,6 @@
   </si>
   <si>
     <t xml:space="preserve">Imperial College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulator USA (FDA)</t>
   </si>
   <si>
     <t xml:space="preserve">ClinChoice</t>
@@ -1008,7 +1011,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1017,26 +1020,26 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1045,12 +1048,12 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1059,40 +1062,40 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1101,25 +1104,27 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31"/>
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -1132,22 +1137,20 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
+      <c r="A33"/>
       <c r="B33" t="s">
         <v>5</v>
       </c>
@@ -1155,12 +1158,12 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1169,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1183,12 +1186,12 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1197,12 +1200,12 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1211,12 +1214,12 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1225,18 +1228,18 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -1244,7 +1247,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1253,32 +1256,32 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1289,32 +1292,32 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1323,26 +1326,26 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1351,26 +1354,26 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1379,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -1393,18 +1396,18 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -1412,13 +1415,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1426,21 +1429,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1454,7 +1457,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1463,40 +1466,40 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1505,12 +1508,12 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1519,26 +1522,26 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1547,40 +1550,40 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1589,40 +1592,40 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -1631,11 +1634,13 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68"/>
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -1643,26 +1648,26 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -1671,13 +1676,11 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
+      <c r="A71"/>
       <c r="B71" t="s">
         <v>5</v>
       </c>
@@ -1685,29 +1688,27 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s">
-        <v>23</v>
-      </c>
+      <c r="A72"/>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
@@ -1718,7 +1719,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -1732,49 +1733,49 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -1783,16 +1784,18 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79"/>
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -1800,35 +1803,35 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -1837,13 +1840,11 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>61</v>
-      </c>
+      <c r="A83"/>
       <c r="B83" t="s">
         <v>5</v>
       </c>
@@ -1851,12 +1852,12 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -1865,18 +1866,18 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -1884,7 +1885,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1893,26 +1894,26 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -1926,7 +1927,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1935,12 +1936,12 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1954,21 +1955,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -1977,12 +1978,12 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1991,12 +1992,12 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -2010,21 +2011,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2033,12 +2034,12 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2047,40 +2048,40 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2089,46 +2090,46 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2136,7 +2137,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -2145,38 +2146,40 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106"/>
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2185,12 +2188,12 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2199,40 +2202,38 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s">
-        <v>8</v>
-      </c>
+      <c r="A110"/>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2241,12 +2242,12 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -2255,26 +2256,26 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2283,12 +2284,12 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2297,38 +2298,40 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116"/>
+      <c r="A116" t="s">
+        <v>46</v>
+      </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -2337,12 +2340,12 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -2351,35 +2354,33 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s">
-        <v>8</v>
-      </c>
+      <c r="A120"/>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122">
@@ -2398,49 +2399,49 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D125" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -2449,40 +2450,40 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -2491,12 +2492,12 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -2505,12 +2506,12 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2519,124 +2520,124 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -2645,49 +2646,49 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
@@ -2701,12 +2702,12 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2720,7 +2721,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -2729,12 +2730,12 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2743,40 +2744,40 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B148" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2785,26 +2786,26 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -2818,7 +2819,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -2827,124 +2828,124 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -2953,16 +2954,18 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163"/>
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -2970,63 +2973,63 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -3035,12 +3038,12 @@
         <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -3049,40 +3052,38 @@
         <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s">
-        <v>42</v>
-      </c>
+      <c r="A170"/>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -3091,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
@@ -3105,52 +3106,54 @@
         <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176"/>
+      <c r="A176" t="s">
+        <v>55</v>
+      </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -3159,26 +3162,26 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D178" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -3187,12 +3190,12 @@
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3201,41 +3204,39 @@
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D182" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s">
-        <v>56</v>
-      </c>
+      <c r="A183"/>
       <c r="B183" t="s">
         <v>5</v>
       </c>
@@ -3262,7 +3263,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -3271,26 +3272,26 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -3299,11 +3300,13 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188"/>
+      <c r="A188" t="s">
+        <v>63</v>
+      </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
@@ -3311,12 +3314,12 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -3325,40 +3328,40 @@
         <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -3367,12 +3370,12 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -3386,7 +3389,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -3395,27 +3398,25 @@
         <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s">
-        <v>61</v>
-      </c>
+      <c r="A196"/>
       <c r="B196" t="s">
         <v>5</v>
       </c>
@@ -3423,68 +3424,68 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3493,54 +3494,54 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -3549,26 +3550,26 @@
         <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -3577,26 +3578,26 @@
         <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -3605,46 +3606,46 @@
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B211" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>26</v>
       </c>
       <c r="D211" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D212" t="s">
         <v>18</v>
@@ -3652,27 +3653,27 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D214" t="s">
         <v>10</v>
@@ -3680,77 +3681,77 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D219" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -3759,18 +3760,18 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -3778,7 +3779,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -3787,7 +3788,7 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
@@ -3795,60 +3796,60 @@
         <v>23</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B225" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D226" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -3857,15 +3858,15 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -3876,7 +3877,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -3890,7 +3891,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -3904,49 +3905,49 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -3955,12 +3956,12 @@
         <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -3969,26 +3970,26 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -3997,26 +3998,26 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -4025,21 +4026,21 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241">
@@ -4053,40 +4054,40 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4095,12 +4096,12 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -4109,26 +4110,26 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D246" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -4137,68 +4138,68 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
         <v>12</v>
       </c>
-      <c r="C250" t="s">
-        <v>9</v>
-      </c>
       <c r="D250" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -4212,33 +4213,35 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
+        <v>41</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
         <v>23</v>
       </c>
-      <c r="B253" t="s">
-        <v>5</v>
-      </c>
-      <c r="C253" t="s">
-        <v>9</v>
-      </c>
-      <c r="D253" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254"/>
       <c r="B254" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -4247,68 +4250,68 @@
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -4317,40 +4320,38 @@
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262"/>
+      <c r="B262" t="s">
+        <v>49</v>
+      </c>
+      <c r="C262" t="s">
         <v>19</v>
       </c>
-      <c r="D261" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>103</v>
-      </c>
-      <c r="B262" t="s">
-        <v>5</v>
-      </c>
-      <c r="C262" t="s">
-        <v>12</v>
-      </c>
       <c r="D262" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -4359,68 +4360,68 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D266" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -4429,18 +4430,18 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D269" t="s">
         <v>7</v>
@@ -4448,21 +4449,21 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D270" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -4471,40 +4472,40 @@
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D272" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -4513,7 +4514,7 @@
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="275">
@@ -4527,12 +4528,12 @@
         <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4541,26 +4542,26 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -4569,12 +4570,12 @@
         <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4583,18 +4584,18 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D280" t="s">
         <v>10</v>
@@ -4602,13 +4603,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D281" t="s">
         <v>7</v>
@@ -4616,7 +4617,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -4625,12 +4626,12 @@
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -4639,18 +4640,18 @@
         <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D284" t="s">
         <v>18</v>
@@ -4658,35 +4659,35 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D285" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D286" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -4695,40 +4696,40 @@
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D289" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -4742,7 +4743,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -4751,29 +4752,29 @@
         <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D292" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B293" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C293" t="s">
         <v>9</v>
@@ -4784,49 +4785,49 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D294" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D295" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D296" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -4835,26 +4836,24 @@
         <v>9</v>
       </c>
       <c r="D297" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s">
-        <v>112</v>
-      </c>
+      <c r="A298"/>
       <c r="B298" t="s">
         <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D298" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -4868,7 +4867,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -4877,29 +4876,29 @@
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
       </c>
       <c r="C301" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D301" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C302" t="s">
         <v>9</v>
@@ -4910,75 +4909,77 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C303" t="s">
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
       </c>
       <c r="C304" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D304" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
         <v>14</v>
       </c>
-      <c r="B305" t="s">
-        <v>12</v>
-      </c>
-      <c r="C305" t="s">
-        <v>9</v>
-      </c>
-      <c r="D305" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306"/>
       <c r="B306" t="s">
         <v>5</v>
       </c>
       <c r="C306" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D307" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -4987,12 +4988,12 @@
         <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -5001,26 +5002,26 @@
         <v>9</v>
       </c>
       <c r="D309" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -5029,26 +5030,26 @@
         <v>9</v>
       </c>
       <c r="D311" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B312" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C312" t="s">
         <v>9</v>
       </c>
       <c r="D312" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -5062,10 +5063,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B314" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
@@ -5076,35 +5077,33 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
       </c>
       <c r="C315" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D315" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s">
-        <v>61</v>
-      </c>
+      <c r="A316"/>
       <c r="B316" t="s">
         <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D316" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -5113,12 +5112,12 @@
         <v>9</v>
       </c>
       <c r="D317" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -5127,12 +5126,12 @@
         <v>9</v>
       </c>
       <c r="D318" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
@@ -5141,26 +5140,26 @@
         <v>9</v>
       </c>
       <c r="D319" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D320" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -5169,12 +5168,12 @@
         <v>9</v>
       </c>
       <c r="D321" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -5188,21 +5187,21 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D323" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -5216,13 +5215,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D325" t="s">
         <v>18</v>
@@ -5230,7 +5229,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -5239,12 +5238,12 @@
         <v>9</v>
       </c>
       <c r="D326" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
@@ -5257,9 +5256,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s">
-        <v>11</v>
-      </c>
+      <c r="A328"/>
       <c r="B328" t="s">
         <v>5</v>
       </c>
@@ -5267,7 +5264,7 @@
         <v>9</v>
       </c>
       <c r="D328" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="329">
@@ -5286,7 +5283,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -5295,34 +5292,188 @@
         <v>9</v>
       </c>
       <c r="D330" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D331" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
+        <v>118</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>51</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>9</v>
+      </c>
+      <c r="D333" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
         <v>4</v>
       </c>
-      <c r="B332" t="s">
-        <v>5</v>
-      </c>
-      <c r="C332" t="s">
-        <v>9</v>
-      </c>
-      <c r="D332" t="s">
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>46</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>9</v>
+      </c>
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>119</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>46</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>51</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>11</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>9</v>
+      </c>
+      <c r="D339" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>8</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>99</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>19</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>9</v>
+      </c>
+      <c r="D343" t="s">
         <v>18</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -59,6 +59,12 @@
     <t xml:space="preserve">Johnson and Johnson</t>
   </si>
   <si>
+    <t xml:space="preserve">Regeneron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America</t>
+  </si>
+  <si>
     <t xml:space="preserve">Consultant</t>
   </si>
   <si>
@@ -68,9 +74,6 @@
     <t xml:space="preserve">MSD</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America</t>
-  </si>
-  <si>
     <t xml:space="preserve">Academia</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">Cytel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valos SRL</t>
   </si>
   <si>
@@ -248,9 +254,6 @@
     <t xml:space="preserve">Pharmalog</t>
   </si>
   <si>
-    <t xml:space="preserve">Cytel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
@@ -311,6 +314,9 @@
     <t xml:space="preserve">University of Southern Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">Imperial College London</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cambridge University</t>
   </si>
   <si>
@@ -345,9 +351,6 @@
   </si>
   <si>
     <t xml:space="preserve">Swiss Group for Applied Cancer Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperial College London</t>
   </si>
   <si>
     <t xml:space="preserve">ClinChoice</t>
@@ -781,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -789,21 +792,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -817,10 +820,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -834,53 +837,53 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11"/>
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -891,99 +894,99 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -992,12 +995,12 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1006,12 +1009,12 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1020,12 +1023,12 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1034,21 +1037,21 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1059,10 +1062,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1073,10 +1076,10 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1087,29 +1090,29 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1118,12 +1121,12 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1132,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1143,28 +1146,28 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33"/>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
+      <c r="A34"/>
       <c r="B34" t="s">
         <v>5</v>
       </c>
@@ -1172,12 +1175,12 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1186,12 +1189,12 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1200,12 +1203,12 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1214,12 +1217,12 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1228,12 +1231,12 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -1242,12 +1245,12 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1256,12 +1259,12 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1270,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1281,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1295,10 +1298,10 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1309,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1317,44 +1320,44 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1368,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -1379,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
@@ -1393,10 +1396,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -1407,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -1415,13 +1418,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1429,21 +1432,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1452,12 +1455,12 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1471,35 +1474,35 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1508,12 +1511,12 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1522,40 +1525,40 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
         <v>20</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -1564,21 +1567,21 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
@@ -1589,21 +1592,21 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -1611,16 +1614,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -1634,12 +1637,12 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1648,39 +1651,41 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71"/>
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -1700,13 +1705,11 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>46</v>
-      </c>
+      <c r="A73"/>
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -1714,12 +1717,12 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -1733,7 +1736,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -1747,21 +1750,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -1770,15 +1773,15 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -1789,62 +1792,64 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83"/>
       <c r="B83" t="s">
         <v>5</v>
       </c>
@@ -1852,13 +1857,11 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s">
-        <v>23</v>
-      </c>
+      <c r="A84"/>
       <c r="B84" t="s">
         <v>5</v>
       </c>
@@ -1866,40 +1869,40 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -1908,12 +1911,12 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -1922,12 +1925,12 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1936,12 +1939,12 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1955,35 +1958,35 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1992,12 +1995,12 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -2006,12 +2009,12 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -2020,12 +2023,12 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2034,12 +2037,12 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2048,18 +2051,18 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2067,21 +2070,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2095,41 +2098,41 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2137,30 +2140,30 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -2174,26 +2177,26 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2202,12 +2205,12 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -2216,24 +2219,26 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110"/>
+      <c r="A110" t="s">
+        <v>73</v>
+      </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2242,40 +2247,38 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s">
-        <v>4</v>
-      </c>
+      <c r="A112"/>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2284,26 +2287,26 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -2312,26 +2315,26 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -2345,33 +2348,35 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120"/>
+      <c r="A120" t="s">
+        <v>45</v>
+      </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -2380,26 +2385,24 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s">
-        <v>23</v>
-      </c>
+      <c r="A122"/>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2408,12 +2411,12 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2422,26 +2425,26 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -2450,68 +2453,68 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D129" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2520,12 +2523,12 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -2539,7 +2542,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -2548,12 +2551,12 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2562,12 +2565,12 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2576,46 +2579,46 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -2623,7 +2626,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -2632,40 +2635,40 @@
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -2674,26 +2677,26 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2702,26 +2705,26 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -2730,12 +2733,12 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2744,40 +2747,40 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2786,40 +2789,40 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -2828,7 +2831,7 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154">
@@ -2842,40 +2845,40 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B155" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -2884,40 +2887,40 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -2926,12 +2929,12 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -2940,12 +2943,12 @@
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -2954,12 +2957,12 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -2968,43 +2971,43 @@
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
         <v>34</v>
-      </c>
-      <c r="B165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -3015,75 +3018,77 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170"/>
+      <c r="A170" t="s">
+        <v>37</v>
+      </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
         <v>87</v>
-      </c>
-      <c r="B171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -3092,40 +3097,38 @@
         <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s">
-        <v>23</v>
-      </c>
+      <c r="A173"/>
       <c r="B173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -3134,12 +3137,12 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -3148,12 +3151,12 @@
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -3162,26 +3165,26 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -3190,12 +3193,12 @@
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3204,94 +3207,94 @@
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183"/>
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D184" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s">
-        <v>8</v>
-      </c>
+      <c r="A186"/>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D186" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -3300,12 +3303,12 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -3319,13 +3322,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
         <v>13</v>
@@ -3333,77 +3336,77 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D194" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3412,11 +3415,13 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196"/>
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
@@ -3424,102 +3429,100 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s">
-        <v>8</v>
-      </c>
+      <c r="A199"/>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -3527,7 +3530,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -3536,68 +3539,68 @@
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -3606,74 +3609,74 @@
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D213" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D214" t="s">
         <v>10</v>
@@ -3681,21 +3684,21 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -3704,32 +3707,32 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D217" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -3737,21 +3740,21 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B219" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -3760,18 +3763,18 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B221" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -3779,55 +3782,55 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B225" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C225" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -3835,21 +3838,21 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -3858,32 +3861,32 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
@@ -3891,133 +3894,133 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -4026,26 +4029,26 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -4054,40 +4057,40 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D243" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4096,12 +4099,12 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -4110,54 +4113,54 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -4166,40 +4169,40 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D251" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -4208,26 +4211,26 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -4236,68 +4239,68 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D256" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -4306,12 +4309,12 @@
         <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -4320,12 +4323,12 @@
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -4334,52 +4337,54 @@
         <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262"/>
+      <c r="A262" t="s">
+        <v>47</v>
+      </c>
       <c r="B262" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C264" t="s">
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -4388,40 +4393,38 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s">
+      <c r="A267"/>
+      <c r="B267" t="s">
         <v>50</v>
       </c>
-      <c r="B267" t="s">
-        <v>12</v>
-      </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -4430,110 +4433,110 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D271" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D272" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D274" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D275" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4542,40 +4545,40 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4584,26 +4587,26 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -4612,12 +4615,12 @@
         <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -4631,21 +4634,21 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C283" t="s">
         <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -4654,26 +4657,26 @@
         <v>9</v>
       </c>
       <c r="D284" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -4682,26 +4685,26 @@
         <v>9</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
       </c>
       <c r="C287" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D287" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -4710,18 +4713,18 @@
         <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D289" t="s">
         <v>7</v>
@@ -4738,12 +4741,12 @@
         <v>9</v>
       </c>
       <c r="D290" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -4752,29 +4755,29 @@
         <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B293" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C293" t="s">
         <v>9</v>
@@ -4785,21 +4788,21 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D294" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -4808,26 +4811,26 @@
         <v>9</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D296" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -4836,11 +4839,13 @@
         <v>9</v>
       </c>
       <c r="D297" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298"/>
+      <c r="A298" t="s">
+        <v>74</v>
+      </c>
       <c r="B298" t="s">
         <v>5</v>
       </c>
@@ -4848,57 +4853,57 @@
         <v>9</v>
       </c>
       <c r="D298" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
       </c>
       <c r="C299" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D299" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C300" t="s">
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
       </c>
       <c r="C301" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D301" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B302" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C302" t="s">
         <v>9</v>
@@ -4909,36 +4914,34 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
       </c>
       <c r="C303" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D303" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
       </c>
       <c r="C304" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s">
-        <v>11</v>
-      </c>
+      <c r="A305"/>
       <c r="B305" t="s">
         <v>5</v>
       </c>
@@ -4946,12 +4949,12 @@
         <v>9</v>
       </c>
       <c r="D305" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -4960,43 +4963,43 @@
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
       </c>
       <c r="C308" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D308" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="B309" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C309" t="s">
         <v>9</v>
@@ -5007,7 +5010,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -5016,94 +5019,96 @@
         <v>9</v>
       </c>
       <c r="D310" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D311" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C312" t="s">
         <v>9</v>
       </c>
       <c r="D312" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D313" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
         <v>12</v>
       </c>
-      <c r="C314" t="s">
-        <v>9</v>
-      </c>
       <c r="D314" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
       </c>
       <c r="C315" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D315" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316"/>
+      <c r="A316" t="s">
+        <v>115</v>
+      </c>
       <c r="B316" t="s">
         <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D316" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -5112,12 +5117,12 @@
         <v>9</v>
       </c>
       <c r="D317" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -5131,21 +5136,21 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
+        <v>64</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" t="s">
         <v>39</v>
-      </c>
-      <c r="B319" t="s">
-        <v>5</v>
-      </c>
-      <c r="C319" t="s">
-        <v>9</v>
-      </c>
-      <c r="D319" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -5154,54 +5159,52 @@
         <v>12</v>
       </c>
       <c r="D320" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C321" t="s">
         <v>9</v>
       </c>
       <c r="D321" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
       </c>
       <c r="C322" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D322" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s">
-        <v>116</v>
-      </c>
+      <c r="A323"/>
       <c r="B323" t="s">
         <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D323" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -5210,12 +5213,12 @@
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -5224,12 +5227,12 @@
         <v>9</v>
       </c>
       <c r="D325" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -5238,25 +5241,27 @@
         <v>9</v>
       </c>
       <c r="D326" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
       </c>
       <c r="C327" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D327" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328"/>
+      <c r="A328" t="s">
+        <v>64</v>
+      </c>
       <c r="B328" t="s">
         <v>5</v>
       </c>
@@ -5264,12 +5269,12 @@
         <v>9</v>
       </c>
       <c r="D328" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
@@ -5278,40 +5283,40 @@
         <v>9</v>
       </c>
       <c r="D329" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
       </c>
       <c r="C330" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D330" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -5320,12 +5325,12 @@
         <v>9</v>
       </c>
       <c r="D332" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -5334,12 +5339,12 @@
         <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
@@ -5348,13 +5353,11 @@
         <v>9</v>
       </c>
       <c r="D334" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s">
-        <v>46</v>
-      </c>
+      <c r="A335"/>
       <c r="B335" t="s">
         <v>5</v>
       </c>
@@ -5362,26 +5365,26 @@
         <v>9</v>
       </c>
       <c r="D335" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
       </c>
       <c r="C336" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D336" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
@@ -5390,26 +5393,26 @@
         <v>9</v>
       </c>
       <c r="D337" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
       </c>
       <c r="C338" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D338" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -5418,12 +5421,12 @@
         <v>9</v>
       </c>
       <c r="D339" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -5432,12 +5435,12 @@
         <v>9</v>
       </c>
       <c r="D340" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -5446,35 +5449,133 @@
         <v>9</v>
       </c>
       <c r="D341" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
       </c>
       <c r="C342" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D342" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
+        <v>120</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>47</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>52</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>9</v>
+      </c>
+      <c r="D345" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>9</v>
+      </c>
+      <c r="D346" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
         <v>4</v>
       </c>
-      <c r="B343" t="s">
-        <v>5</v>
-      </c>
-      <c r="C343" t="s">
-        <v>9</v>
-      </c>
-      <c r="D343" t="s">
-        <v>18</v>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>8</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>9</v>
+      </c>
+      <c r="D348" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>101</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>20</v>
+      </c>
+      <c r="D349" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>9</v>
+      </c>
+      <c r="D350" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t xml:space="preserve">Leibniz Institute for Prevention Research and Epidemiology - BIPS, Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatConsult</t>
   </si>
   <si>
     <t xml:space="preserve">Czechia</t>
@@ -1236,21 +1239,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1259,12 +1262,12 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1273,12 +1276,12 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1287,18 +1290,18 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -1306,27 +1309,27 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1334,41 +1337,41 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1390,41 +1393,41 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1432,7 +1435,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1446,21 +1449,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1469,12 +1472,12 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1488,35 +1491,35 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1525,12 +1528,12 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -1539,40 +1542,40 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -1581,46 +1584,46 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -1628,16 +1631,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -1651,12 +1654,12 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1665,47 +1668,49 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
         <v>24</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72"/>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -1717,13 +1722,11 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s">
-        <v>47</v>
-      </c>
+      <c r="A74"/>
       <c r="B74" t="s">
         <v>5</v>
       </c>
@@ -1731,12 +1734,12 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -1764,21 +1767,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
@@ -1787,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -1795,7 +1798,7 @@
         <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -1806,76 +1809,76 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
         <v>24</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84"/>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="85">
-      <c r="A85" t="s">
-        <v>24</v>
-      </c>
+      <c r="A85"/>
       <c r="B85" t="s">
         <v>5</v>
       </c>
@@ -1883,40 +1886,40 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -1925,12 +1928,12 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1939,12 +1942,12 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1953,12 +1956,12 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -1972,35 +1975,35 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -2014,7 +2017,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -2023,12 +2026,12 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2037,12 +2040,12 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2051,40 +2054,40 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2093,40 +2096,40 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2140,77 +2143,77 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -2224,7 +2227,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -2233,12 +2236,12 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2251,26 +2254,26 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112"/>
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113"/>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
         <v>6</v>
-      </c>
-      <c r="D112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>52</v>
-      </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2292,35 +2295,35 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -2343,75 +2346,75 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
         <v>64</v>
       </c>
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122"/>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s">
-        <v>24</v>
-      </c>
+      <c r="A123"/>
       <c r="B123" t="s">
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -2430,7 +2433,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2439,12 +2442,12 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -2458,49 +2461,49 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -2514,21 +2517,21 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -2537,12 +2540,12 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -2556,7 +2559,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2570,7 +2573,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2579,12 +2582,12 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -2593,12 +2596,12 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -2607,116 +2610,116 @@
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D141" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B145" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
         <v>16</v>
@@ -2724,13 +2727,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D146" t="s">
         <v>16</v>
@@ -2738,7 +2741,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2752,7 +2755,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -2766,7 +2769,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -2775,7 +2778,7 @@
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
@@ -2794,49 +2797,49 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -2845,12 +2848,12 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -2873,12 +2876,12 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -2887,32 +2890,32 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -2920,49 +2923,49 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -2971,40 +2974,40 @@
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -3013,82 +3016,82 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -3097,44 +3100,44 @@
         <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173"/>
+      <c r="A173" t="s">
+        <v>40</v>
+      </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
       <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175"/>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
         <v>12</v>
-      </c>
-      <c r="D174" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" t="s">
-        <v>9</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -3142,21 +3145,21 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -3179,12 +3182,12 @@
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -3193,12 +3196,12 @@
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3207,26 +3210,26 @@
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -3235,53 +3238,55 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186"/>
+      <c r="A186" t="s">
+        <v>31</v>
+      </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
@@ -3294,35 +3299,33 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D187" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s">
-        <v>60</v>
-      </c>
+      <c r="A188"/>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -3331,12 +3334,12 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -3345,12 +3348,12 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -3364,91 +3367,91 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3457,44 +3460,44 @@
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199"/>
+      <c r="A199" t="s">
+        <v>83</v>
+      </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s">
-        <v>17</v>
-      </c>
+      <c r="A201"/>
       <c r="B201" t="s">
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
         <v>16</v>
@@ -3502,38 +3505,38 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
@@ -3544,27 +3547,27 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
@@ -3572,77 +3575,77 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -3651,18 +3654,18 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D213" t="s">
         <v>16</v>
@@ -3670,41 +3673,41 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D216" t="s">
         <v>16</v>
@@ -3712,7 +3715,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -3726,35 +3729,35 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -3763,21 +3766,21 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
@@ -3785,32 +3788,32 @@
         <v>96</v>
       </c>
       <c r="B222" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -3819,18 +3822,18 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B225" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -3838,55 +3841,55 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B229" t="s">
         <v>50</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
@@ -3894,21 +3897,21 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -3917,32 +3920,32 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
@@ -3950,147 +3953,147 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4099,26 +4102,26 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C245" t="s">
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -4127,40 +4130,40 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D248" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -4169,12 +4172,12 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -4188,44 +4191,44 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D252" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="254">
@@ -4239,35 +4242,35 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D256" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="257">
@@ -4281,21 +4284,21 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -4314,58 +4317,58 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D261" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C262" t="s">
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264">
@@ -4384,7 +4387,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -4393,7 +4396,7 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266">
@@ -4411,48 +4414,50 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267"/>
+      <c r="A267" t="s">
+        <v>47</v>
+      </c>
       <c r="B267" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B268" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C268" t="s">
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -4461,40 +4466,38 @@
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="s">
+        <v>9</v>
+      </c>
+      <c r="D271" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272"/>
+      <c r="B272" t="s">
+        <v>50</v>
+      </c>
+      <c r="C272" t="s">
         <v>20</v>
       </c>
-      <c r="D271" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>51</v>
-      </c>
-      <c r="B272" t="s">
-        <v>12</v>
-      </c>
-      <c r="C272" t="s">
-        <v>9</v>
-      </c>
       <c r="D272" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -4503,40 +4506,40 @@
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4550,35 +4553,35 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D277" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4587,40 +4590,40 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D280" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D281" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -4629,54 +4632,54 @@
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B283" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D283" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B285" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D285" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -4685,26 +4688,26 @@
         <v>9</v>
       </c>
       <c r="D286" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -4718,21 +4721,21 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C289" t="s">
         <v>9</v>
       </c>
       <c r="D289" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -4741,54 +4744,54 @@
         <v>9</v>
       </c>
       <c r="D290" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C291" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D291" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -4797,12 +4800,12 @@
         <v>9</v>
       </c>
       <c r="D294" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -4811,18 +4814,18 @@
         <v>9</v>
       </c>
       <c r="D295" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D296" t="s">
         <v>7</v>
@@ -4844,69 +4847,69 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
       </c>
       <c r="C299" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B300" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C300" t="s">
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D302" t="s">
         <v>7</v>
@@ -4914,13 +4917,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
       </c>
       <c r="C303" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D303" t="s">
         <v>16</v>
@@ -4928,7 +4931,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -4937,16 +4940,18 @@
         <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305"/>
+      <c r="A305" t="s">
+        <v>17</v>
+      </c>
       <c r="B305" t="s">
         <v>5</v>
       </c>
       <c r="C305" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D305" t="s">
         <v>16</v>
@@ -4954,63 +4959,63 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C306" t="s">
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D307" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
       </c>
       <c r="C308" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B309" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D309" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -5019,18 +5024,16 @@
         <v>9</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s">
-        <v>113</v>
-      </c>
+      <c r="A311"/>
       <c r="B311" t="s">
         <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D311" t="s">
         <v>16</v>
@@ -5038,7 +5041,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -5047,12 +5050,12 @@
         <v>9</v>
       </c>
       <c r="D312" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -5061,40 +5064,40 @@
         <v>9</v>
       </c>
       <c r="D313" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D314" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B315" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C315" t="s">
         <v>9</v>
       </c>
       <c r="D315" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -5103,26 +5106,26 @@
         <v>9</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
       </c>
       <c r="C317" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D317" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -5131,26 +5134,26 @@
         <v>9</v>
       </c>
       <c r="D318" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C319" t="s">
         <v>9</v>
       </c>
       <c r="D319" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -5159,52 +5162,54 @@
         <v>12</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B321" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C321" t="s">
         <v>9</v>
       </c>
       <c r="D321" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
       </c>
       <c r="C322" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D322" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323"/>
+      <c r="A323" t="s">
+        <v>24</v>
+      </c>
       <c r="B323" t="s">
         <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D323" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -5213,96 +5218,94 @@
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B325" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C325" t="s">
         <v>9</v>
       </c>
       <c r="D325" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
       </c>
       <c r="C326" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D326" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D327" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
       </c>
       <c r="C328" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D328" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C329" t="s">
         <v>9</v>
       </c>
       <c r="D329" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s">
-        <v>117</v>
-      </c>
+      <c r="A330"/>
       <c r="B330" t="s">
         <v>5</v>
       </c>
       <c r="C330" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D330" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -5311,12 +5314,12 @@
         <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -5325,12 +5328,12 @@
         <v>9</v>
       </c>
       <c r="D332" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -5339,25 +5342,27 @@
         <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
       </c>
       <c r="C334" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D334" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335"/>
+      <c r="A335" t="s">
+        <v>64</v>
+      </c>
       <c r="B335" t="s">
         <v>5</v>
       </c>
@@ -5365,12 +5370,12 @@
         <v>9</v>
       </c>
       <c r="D335" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -5384,35 +5389,35 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D337" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
       </c>
       <c r="C338" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D338" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -5426,7 +5431,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -5440,7 +5445,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -5449,13 +5454,11 @@
         <v>9</v>
       </c>
       <c r="D341" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s">
-        <v>47</v>
-      </c>
+      <c r="A342"/>
       <c r="B342" t="s">
         <v>5</v>
       </c>
@@ -5463,18 +5466,18 @@
         <v>9</v>
       </c>
       <c r="D342" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D343" t="s">
         <v>16</v>
@@ -5482,7 +5485,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -5491,18 +5494,18 @@
         <v>9</v>
       </c>
       <c r="D344" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
       </c>
       <c r="C345" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D345" t="s">
         <v>16</v>
@@ -5510,7 +5513,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -5519,12 +5522,12 @@
         <v>9</v>
       </c>
       <c r="D346" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -5547,34 +5550,132 @@
         <v>9</v>
       </c>
       <c r="D348" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
       </c>
       <c r="C349" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D349" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
+        <v>121</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>47</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>9</v>
+      </c>
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>52</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>9</v>
+      </c>
+      <c r="D352" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>11</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>9</v>
+      </c>
+      <c r="D353" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
         <v>4</v>
       </c>
-      <c r="B350" t="s">
-        <v>5</v>
-      </c>
-      <c r="C350" t="s">
-        <v>9</v>
-      </c>
-      <c r="D350" t="s">
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>9</v>
+      </c>
+      <c r="D354" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>8</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>9</v>
+      </c>
+      <c r="D355" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>102</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>20</v>
+      </c>
+      <c r="D356" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>9</v>
+      </c>
+      <c r="D357" t="s">
         <v>16</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -74,9 +74,18 @@
     <t xml:space="preserve">MSD</t>
   </si>
   <si>
+    <t xml:space="preserve">Cytel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Academia</t>
   </si>
   <si>
+    <t xml:space="preserve">UCB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bayer</t>
   </si>
   <si>
@@ -95,9 +104,6 @@
     <t xml:space="preserve">Parexel</t>
   </si>
   <si>
-    <t xml:space="preserve">CRO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taiwan</t>
   </si>
   <si>
@@ -134,9 +140,6 @@
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">UCB</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Aberdeen</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t xml:space="preserve">Windward Bio</t>
   </si>
   <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuvation Bio</t>
   </si>
   <si>
@@ -197,6 +203,9 @@
     <t xml:space="preserve">GSK</t>
   </si>
   <si>
+    <t xml:space="preserve">IQVIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regulator Finland (FIMEA)</t>
   </si>
   <si>
@@ -212,10 +221,7 @@
     <t xml:space="preserve">Pharmalex</t>
   </si>
   <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytel</t>
+    <t xml:space="preserve">Greece</t>
   </si>
   <si>
     <t xml:space="preserve">Valos SRL</t>
@@ -864,29 +870,29 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -897,10 +903,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -925,99 +931,99 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1026,12 +1032,12 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1040,12 +1046,12 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1054,35 +1060,35 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -1093,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1107,43 +1113,43 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1152,25 +1158,27 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34"/>
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
@@ -1189,16 +1197,14 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
+      <c r="A36"/>
       <c r="B36" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1220,12 +1226,12 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1234,21 +1240,21 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -1262,26 +1268,26 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1295,7 +1301,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1309,21 +1315,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1332,26 +1338,26 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1360,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1368,18 +1374,18 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1388,12 +1394,12 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1402,26 +1408,26 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1430,35 +1436,35 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -1472,18 +1478,18 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -1491,13 +1497,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -1505,21 +1511,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1542,40 +1548,40 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -1584,12 +1590,12 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1598,26 +1604,26 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -1626,40 +1632,40 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1668,40 +1674,40 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -1710,11 +1716,13 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73"/>
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -1722,24 +1730,26 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74"/>
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -1748,13 +1758,11 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>21</v>
-      </c>
+      <c r="A76"/>
       <c r="B76" t="s">
         <v>5</v>
       </c>
@@ -1762,13 +1770,11 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
+      <c r="A77"/>
       <c r="B77" t="s">
         <v>5</v>
       </c>
@@ -1776,29 +1782,29 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -1809,7 +1815,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -1823,103 +1829,105 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85"/>
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -1928,13 +1936,11 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s">
-        <v>64</v>
-      </c>
+      <c r="A89"/>
       <c r="B89" t="s">
         <v>5</v>
       </c>
@@ -1942,12 +1948,12 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1956,18 +1962,18 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -1975,7 +1981,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -1984,26 +1990,26 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -2017,7 +2023,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -2026,12 +2032,12 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2045,21 +2051,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2068,26 +2074,26 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2096,12 +2102,12 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -2110,32 +2116,32 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2143,7 +2149,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -2152,32 +2158,32 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2185,35 +2191,35 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -2241,16 +2247,16 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
         <v>73</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -2258,44 +2264,46 @@
         <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113"/>
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2304,26 +2312,26 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2332,12 +2340,12 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -2346,40 +2354,38 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s">
-        <v>47</v>
-      </c>
+      <c r="A119"/>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -2388,38 +2394,40 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123"/>
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2428,12 +2436,12 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2442,26 +2450,26 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -2470,68 +2478,66 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s">
-        <v>24</v>
-      </c>
+      <c r="A129"/>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -2540,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
@@ -2554,26 +2560,26 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2582,40 +2588,40 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -2624,68 +2630,68 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -2694,54 +2700,54 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2750,40 +2756,40 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2792,54 +2798,54 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -2848,12 +2854,12 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -2867,7 +2873,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -2881,7 +2887,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -2890,12 +2896,12 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -2904,40 +2910,40 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B159" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -2946,26 +2952,26 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -2979,7 +2985,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -2988,138 +2994,138 @@
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -3128,69 +3134,71 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175"/>
+      <c r="A175" t="s">
+        <v>61</v>
+      </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -3201,21 +3209,21 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -3224,108 +3232,108 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s">
-        <v>24</v>
-      </c>
+      <c r="A184"/>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188"/>
+      <c r="A188" t="s">
+        <v>14</v>
+      </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -3334,12 +3342,12 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -3348,12 +3356,12 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -3362,26 +3370,26 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -3390,68 +3398,66 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s">
-        <v>24</v>
-      </c>
+      <c r="A197"/>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3460,26 +3466,26 @@
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -3488,11 +3494,13 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201"/>
+      <c r="A201" t="s">
+        <v>54</v>
+      </c>
       <c r="B201" t="s">
         <v>5</v>
       </c>
@@ -3505,63 +3513,63 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3570,26 +3578,26 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -3598,26 +3606,26 @@
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3626,12 +3634,12 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -3640,13 +3648,11 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s">
-        <v>14</v>
-      </c>
+      <c r="A212"/>
       <c r="B212" t="s">
         <v>5</v>
       </c>
@@ -3654,152 +3660,152 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C213" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B219" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -3822,60 +3828,60 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B226" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D228" t="s">
         <v>16</v>
@@ -3883,91 +3889,91 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B229" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B233" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -3976,7 +3982,7 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -3990,12 +3996,12 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -4009,77 +4015,77 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B239" t="s">
         <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B241" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -4088,32 +4094,32 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
@@ -4121,21 +4127,21 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -4144,26 +4150,26 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -4172,12 +4178,12 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -4186,12 +4192,12 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -4200,82 +4206,82 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D253" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D255" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -4284,18 +4290,18 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D258" t="s">
         <v>7</v>
@@ -4303,7 +4309,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -4312,40 +4318,40 @@
         <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D261" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4354,12 +4360,12 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -4368,12 +4374,12 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -4382,12 +4388,12 @@
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -4396,54 +4402,54 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D266" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C268" t="s">
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -4452,26 +4458,26 @@
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -4480,24 +4486,26 @@
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272"/>
+      <c r="A272" t="s">
+        <v>106</v>
+      </c>
       <c r="B272" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -4506,35 +4514,35 @@
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D274" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D275" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276">
@@ -4548,40 +4556,40 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C278" t="s">
         <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4590,82 +4598,82 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C281" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C282" t="s">
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D284" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -4674,26 +4682,24 @@
         <v>9</v>
       </c>
       <c r="D285" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s">
-        <v>8</v>
-      </c>
+      <c r="A286"/>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C286" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D286" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -4702,12 +4708,12 @@
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -4716,15 +4722,15 @@
         <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B289" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C289" t="s">
         <v>9</v>
@@ -4735,7 +4741,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -4744,18 +4750,18 @@
         <v>9</v>
       </c>
       <c r="D290" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B291" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C291" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D291" t="s">
         <v>10</v>
@@ -4763,41 +4769,41 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C292" t="s">
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D293" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D294" t="s">
         <v>7</v>
@@ -4805,21 +4811,21 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -4828,26 +4834,26 @@
         <v>9</v>
       </c>
       <c r="D296" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
       </c>
       <c r="C297" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D297" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -4856,12 +4862,12 @@
         <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -4870,12 +4876,12 @@
         <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -4884,12 +4890,12 @@
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -4898,18 +4904,18 @@
         <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D302" t="s">
         <v>7</v>
@@ -4917,21 +4923,21 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C303" t="s">
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -4940,7 +4946,7 @@
         <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305">
@@ -4948,46 +4954,46 @@
         <v>17</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C305" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D305" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B306" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C306" t="s">
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D307" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -5001,21 +5007,21 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D309" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -5024,11 +5030,13 @@
         <v>9</v>
       </c>
       <c r="D310" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311"/>
+      <c r="A311" t="s">
+        <v>8</v>
+      </c>
       <c r="B311" t="s">
         <v>5</v>
       </c>
@@ -5041,21 +5049,21 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
       </c>
       <c r="C312" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D312" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -5064,60 +5072,60 @@
         <v>9</v>
       </c>
       <c r="D313" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D314" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B315" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C315" t="s">
         <v>9</v>
       </c>
       <c r="D315" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
       </c>
       <c r="C317" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D317" t="s">
         <v>16</v>
@@ -5125,7 +5133,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -5134,54 +5142,54 @@
         <v>9</v>
       </c>
       <c r="D318" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D319" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C320" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
       </c>
       <c r="C321" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D321" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -5195,21 +5203,21 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D323" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -5218,108 +5226,108 @@
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s">
-        <v>64</v>
-      </c>
+      <c r="A325"/>
       <c r="B325" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C325" t="s">
         <v>9</v>
       </c>
       <c r="D325" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
       </c>
       <c r="C326" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D326" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B327" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C327" t="s">
         <v>9</v>
       </c>
       <c r="D327" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
       </c>
       <c r="C328" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D328" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B329" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C329" t="s">
         <v>9</v>
       </c>
       <c r="D329" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330"/>
+      <c r="A330" t="s">
+        <v>24</v>
+      </c>
       <c r="B330" t="s">
         <v>5</v>
       </c>
       <c r="C330" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D330" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D331" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -5328,12 +5336,12 @@
         <v>9</v>
       </c>
       <c r="D332" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -5342,18 +5350,18 @@
         <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
       </c>
       <c r="C334" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D334" t="s">
         <v>10</v>
@@ -5361,21 +5369,21 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D335" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -5395,7 +5403,7 @@
         <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D337" t="s">
         <v>7</v>
@@ -5403,7 +5411,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -5412,12 +5420,12 @@
         <v>9</v>
       </c>
       <c r="D338" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -5426,94 +5434,94 @@
         <v>9</v>
       </c>
       <c r="D339" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C340" t="s">
         <v>9</v>
       </c>
       <c r="D340" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
       </c>
       <c r="C341" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D341" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342"/>
+      <c r="A342" t="s">
+        <v>14</v>
+      </c>
       <c r="B342" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C342" t="s">
         <v>9</v>
       </c>
       <c r="D342" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C344" t="s">
         <v>9</v>
       </c>
       <c r="D344" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s">
-        <v>119</v>
-      </c>
+      <c r="A345"/>
       <c r="B345" t="s">
         <v>5</v>
       </c>
       <c r="C345" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D345" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -5522,26 +5530,26 @@
         <v>9</v>
       </c>
       <c r="D346" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D347" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -5550,12 +5558,12 @@
         <v>9</v>
       </c>
       <c r="D348" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -5564,26 +5572,26 @@
         <v>9</v>
       </c>
       <c r="D349" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D350" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -5592,12 +5600,12 @@
         <v>9</v>
       </c>
       <c r="D351" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -5611,21 +5619,21 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
       </c>
       <c r="C353" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D353" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -5634,7 +5642,7 @@
         <v>9</v>
       </c>
       <c r="D354" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355">
@@ -5653,29 +5661,251 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D356" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
+        <v>27</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>9</v>
+      </c>
+      <c r="D357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358"/>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
         <v>4</v>
       </c>
-      <c r="B357" t="s">
-        <v>5</v>
-      </c>
-      <c r="C357" t="s">
-        <v>9</v>
-      </c>
-      <c r="D357" t="s">
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>9</v>
+      </c>
+      <c r="D359" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>14</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>9</v>
+      </c>
+      <c r="D360" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>121</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>122</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>54</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>9</v>
+      </c>
+      <c r="D364" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>48</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>9</v>
+      </c>
+      <c r="D365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>123</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>48</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>54</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>8</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>104</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>22</v>
+      </c>
+      <c r="D372" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" t="s">
         <v>16</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -203,6 +203,9 @@
     <t xml:space="preserve">GSK</t>
   </si>
   <si>
+    <t xml:space="preserve">StatConsult</t>
+  </si>
+  <si>
     <t xml:space="preserve">IQVIA</t>
   </si>
   <si>
@@ -294,9 +297,6 @@
   </si>
   <si>
     <t xml:space="preserve">Leibniz Institute for Prevention Research and Epidemiology - BIPS, Bremen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StatConsult</t>
   </si>
   <si>
     <t xml:space="preserve">Czechia</t>
@@ -1707,21 +1707,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1730,47 +1730,49 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
         <v>27</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76"/>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -1782,13 +1784,11 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s">
-        <v>48</v>
-      </c>
+      <c r="A78"/>
       <c r="B78" t="s">
         <v>5</v>
       </c>
@@ -1796,12 +1796,12 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -1829,21 +1829,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
@@ -1860,7 +1860,7 @@
         <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -1871,35 +1871,35 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1908,7 +1908,7 @@
         <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -1919,42 +1919,42 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
         <v>27</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89"/>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="90">
-      <c r="A90" t="s">
-        <v>27</v>
-      </c>
+      <c r="A90"/>
       <c r="B90" t="s">
         <v>5</v>
       </c>
@@ -1962,40 +1962,40 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -2004,12 +2004,12 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -2018,12 +2018,12 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -2032,12 +2032,12 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2051,21 +2051,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2074,26 +2074,26 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2102,12 +2102,12 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2130,26 +2130,26 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -2158,26 +2158,26 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -2186,26 +2186,26 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
         <v>70</v>
-      </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2214,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -2225,15 +2225,15 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -2242,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -2253,21 +2253,21 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2275,30 +2275,30 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -2312,26 +2312,26 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2340,38 +2340,40 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
         <v>76</v>
       </c>
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119"/>
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -2380,18 +2382,16 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s">
-        <v>4</v>
-      </c>
+      <c r="A121"/>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
         <v>16</v>
@@ -2399,21 +2399,21 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2422,18 +2422,18 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -2441,35 +2441,35 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -2478,12 +2478,12 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -2492,24 +2492,26 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129"/>
+      <c r="A129" t="s">
+        <v>79</v>
+      </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -2518,12 +2520,12 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2532,26 +2534,24 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s">
-        <v>4</v>
-      </c>
+      <c r="A132"/>
       <c r="B132" t="s">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -2560,26 +2560,26 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2588,40 +2588,40 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -2630,40 +2630,40 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -2672,12 +2672,12 @@
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -2686,12 +2686,12 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -2700,12 +2700,12 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2714,18 +2714,18 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -2733,21 +2733,21 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2756,18 +2756,18 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -2784,12 +2784,12 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2798,68 +2798,68 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D151" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B153" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -2873,13 +2873,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D156" t="s">
         <v>16</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -2896,7 +2896,7 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
@@ -2910,35 +2910,35 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
@@ -2957,35 +2957,35 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -2994,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
@@ -3008,40 +3008,40 @@
         <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -3050,40 +3050,40 @@
         <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -3092,12 +3092,12 @@
         <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -3106,12 +3106,12 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -3120,12 +3120,12 @@
         <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -3134,26 +3134,26 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -3162,77 +3162,77 @@
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D181" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -3240,10 +3240,10 @@
         <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s">
         <v>13</v>
@@ -3251,61 +3251,63 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184"/>
+      <c r="A184" t="s">
+        <v>39</v>
+      </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>48</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
         <v>90</v>
-      </c>
-      <c r="B185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -3314,18 +3316,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s">
-        <v>14</v>
-      </c>
+      <c r="A188"/>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
@@ -3333,21 +3333,21 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -3356,12 +3356,12 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -3370,21 +3370,21 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
@@ -3403,7 +3403,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -3417,42 +3417,44 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197"/>
+      <c r="A197" t="s">
+        <v>27</v>
+      </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="198">
@@ -3471,49 +3473,47 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D199" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s">
-        <v>54</v>
-      </c>
+      <c r="A201"/>
       <c r="B201" t="s">
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -3522,54 +3522,54 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3578,12 +3578,12 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -3592,49 +3592,49 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211">
@@ -3648,11 +3648,13 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212"/>
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
@@ -3660,46 +3662,46 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
         <v>16</v>
@@ -3707,22 +3709,20 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s">
-        <v>23</v>
-      </c>
+      <c r="A217"/>
       <c r="B217" t="s">
         <v>5</v>
       </c>
@@ -3730,18 +3730,18 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -3755,7 +3755,7 @@
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D219" t="s">
         <v>10</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -3772,18 +3772,18 @@
         <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -3800,12 +3800,12 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -3819,21 +3819,21 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -3842,26 +3842,26 @@
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
         <v>12</v>
       </c>
-      <c r="C226" t="s">
-        <v>9</v>
-      </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -3870,46 +3870,46 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D230" t="s">
         <v>16</v>
@@ -3917,21 +3917,21 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B231" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -3940,68 +3940,68 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -4010,40 +4010,40 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>21</v>
       </c>
       <c r="D238" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -4052,26 +4052,26 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B241" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -4080,68 +4080,68 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -4150,12 +4150,12 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -4164,32 +4164,32 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D250" t="s">
         <v>7</v>
@@ -4197,77 +4197,77 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B254" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -4281,77 +4281,77 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4360,26 +4360,26 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -4388,12 +4388,12 @@
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -4402,12 +4402,12 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -4430,7 +4430,7 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -4449,7 +4449,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -4458,49 +4458,49 @@
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D271" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="273">
@@ -4514,35 +4514,35 @@
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="276">
@@ -4556,21 +4556,21 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D277" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278">
@@ -4589,58 +4589,58 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D280" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C281" t="s">
         <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C282" t="s">
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283">
@@ -4659,7 +4659,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -4668,7 +4668,7 @@
         <v>9</v>
       </c>
       <c r="D284" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="285">
@@ -4686,34 +4686,36 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286"/>
+      <c r="A286" t="s">
+        <v>48</v>
+      </c>
       <c r="B286" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D286" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C287" t="s">
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -4722,26 +4724,26 @@
         <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C289" t="s">
         <v>9</v>
       </c>
       <c r="D289" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -4750,40 +4752,38 @@
         <v>9</v>
       </c>
       <c r="D290" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s">
-        <v>108</v>
-      </c>
+      <c r="A291"/>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C291" t="s">
         <v>22</v>
       </c>
       <c r="D291" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C292" t="s">
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -4792,110 +4792,110 @@
         <v>9</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="B294" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C294" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D294" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D295" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D296" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C297" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D298" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
       </c>
       <c r="C299" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D299" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
       </c>
       <c r="C300" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -4909,35 +4909,35 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D302" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B303" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C303" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D303" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -4946,26 +4946,26 @@
         <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B305" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C305" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D305" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -4974,40 +4974,40 @@
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C308" t="s">
         <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -5016,26 +5016,26 @@
         <v>9</v>
       </c>
       <c r="D309" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B310" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C310" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D310" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -5044,40 +5044,40 @@
         <v>9</v>
       </c>
       <c r="D311" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D312" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D313" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -5086,12 +5086,12 @@
         <v>9</v>
       </c>
       <c r="D314" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -5100,18 +5100,18 @@
         <v>9</v>
       </c>
       <c r="D315" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D316" t="s">
         <v>7</v>
@@ -5133,69 +5133,69 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
       </c>
       <c r="C318" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D318" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D319" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C320" t="s">
         <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D321" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
       </c>
       <c r="C322" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D322" t="s">
         <v>7</v>
@@ -5203,21 +5203,21 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D323" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -5226,11 +5226,13 @@
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325"/>
+      <c r="A325" t="s">
+        <v>77</v>
+      </c>
       <c r="B325" t="s">
         <v>5</v>
       </c>
@@ -5238,18 +5240,18 @@
         <v>9</v>
       </c>
       <c r="D325" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
       </c>
       <c r="C326" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D326" t="s">
         <v>16</v>
@@ -5257,21 +5259,21 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C327" t="s">
         <v>9</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -5280,15 +5282,15 @@
         <v>22</v>
       </c>
       <c r="D328" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B329" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C329" t="s">
         <v>9</v>
@@ -5299,36 +5301,34 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
       </c>
       <c r="C330" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D330" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s">
-        <v>11</v>
-      </c>
+      <c r="A332"/>
       <c r="B332" t="s">
         <v>5</v>
       </c>
@@ -5336,12 +5336,12 @@
         <v>9</v>
       </c>
       <c r="D332" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -5350,12 +5350,12 @@
         <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
@@ -5364,43 +5364,43 @@
         <v>9</v>
       </c>
       <c r="D334" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D335" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
       </c>
       <c r="C336" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D336" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B337" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C337" t="s">
         <v>9</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -5420,49 +5420,49 @@
         <v>9</v>
       </c>
       <c r="D338" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
       </c>
       <c r="C339" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D339" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B340" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C340" t="s">
         <v>9</v>
       </c>
       <c r="D340" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
       </c>
       <c r="C341" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D341" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="342">
@@ -5470,58 +5470,60 @@
         <v>14</v>
       </c>
       <c r="B342" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C342" t="s">
         <v>9</v>
       </c>
       <c r="D342" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D343" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B344" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C344" t="s">
         <v>9</v>
       </c>
       <c r="D344" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345"/>
+      <c r="A345" t="s">
+        <v>118</v>
+      </c>
       <c r="B345" t="s">
         <v>5</v>
       </c>
       <c r="C345" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D345" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -5530,110 +5532,108 @@
         <v>9</v>
       </c>
       <c r="D346" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D347" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B348" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C348" t="s">
         <v>9</v>
       </c>
       <c r="D348" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
       </c>
       <c r="C349" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D349" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B350" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C350" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D350" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D351" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B352" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C352" t="s">
         <v>9</v>
       </c>
       <c r="D352" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s">
-        <v>120</v>
-      </c>
+      <c r="A353"/>
       <c r="B353" t="s">
         <v>5</v>
       </c>
       <c r="C353" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D353" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -5642,26 +5642,26 @@
         <v>9</v>
       </c>
       <c r="D354" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D355" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -5670,12 +5670,12 @@
         <v>9</v>
       </c>
       <c r="D356" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -5684,24 +5684,26 @@
         <v>9</v>
       </c>
       <c r="D357" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358"/>
+      <c r="A358" t="s">
+        <v>39</v>
+      </c>
       <c r="B358" t="s">
         <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D358" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -5710,12 +5712,12 @@
         <v>9</v>
       </c>
       <c r="D359" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
@@ -5724,26 +5726,26 @@
         <v>9</v>
       </c>
       <c r="D360" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
       </c>
       <c r="C361" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D361" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
@@ -5752,12 +5754,12 @@
         <v>9</v>
       </c>
       <c r="D362" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -5771,7 +5773,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -5780,12 +5782,12 @@
         <v>9</v>
       </c>
       <c r="D364" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -5794,18 +5796,16 @@
         <v>9</v>
       </c>
       <c r="D365" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s">
-        <v>123</v>
-      </c>
+      <c r="A366"/>
       <c r="B366" t="s">
         <v>5</v>
       </c>
       <c r="C366" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D366" t="s">
         <v>16</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -5822,12 +5822,12 @@
         <v>9</v>
       </c>
       <c r="D367" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -5836,26 +5836,26 @@
         <v>9</v>
       </c>
       <c r="D368" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
       </c>
       <c r="C369" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D369" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -5883,13 +5883,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
       </c>
       <c r="C372" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D372" t="s">
         <v>13</v>
@@ -5897,15 +5897,127 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
+        <v>48</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>123</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>48</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>54</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>11</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>9</v>
+      </c>
+      <c r="D377" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
         <v>4</v>
       </c>
-      <c r="B373" t="s">
-        <v>5</v>
-      </c>
-      <c r="C373" t="s">
-        <v>9</v>
-      </c>
-      <c r="D373" t="s">
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>8</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>9</v>
+      </c>
+      <c r="D379" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>104</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>22</v>
+      </c>
+      <c r="D380" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>9</v>
+      </c>
+      <c r="D381" t="s">
         <v>16</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -125,6 +125,9 @@
     <t xml:space="preserve">India</t>
   </si>
   <si>
+    <t xml:space="preserve">Ividata</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMU Munich</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Radboud MC</t>
+  </si>
+  <si>
     <t xml:space="preserve">University of Aberdeen</t>
   </si>
   <si>
@@ -270,6 +276,9 @@
   </si>
   <si>
     <t xml:space="preserve">HTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Transplant Cohort Study</t>
   </si>
   <si>
     <t xml:space="preserve">EORTC</t>
@@ -1022,22 +1031,20 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
+      <c r="A23"/>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1046,12 +1053,12 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1060,12 +1067,12 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1074,54 +1081,54 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1135,49 +1142,49 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1186,38 +1193,40 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
         <v>22</v>
       </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36"/>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1226,27 +1235,25 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
+      <c r="A39"/>
       <c r="B39" t="s">
         <v>5</v>
       </c>
@@ -1254,12 +1261,12 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1268,26 +1275,26 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1301,7 +1308,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1310,26 +1317,26 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1338,18 +1345,18 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -1357,7 +1364,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1366,40 +1373,40 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1408,40 +1415,40 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1450,82 +1457,82 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1539,13 +1546,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -1553,21 +1560,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -1576,12 +1583,12 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -1590,12 +1597,12 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1604,26 +1611,26 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -1632,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -1651,16 +1658,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -1671,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -1679,21 +1686,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -1702,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
@@ -1716,12 +1723,12 @@
         <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1730,53 +1737,55 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77"/>
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
@@ -1784,11 +1793,13 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78"/>
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
@@ -1796,26 +1807,26 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -1824,13 +1835,11 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s">
-        <v>4</v>
-      </c>
+      <c r="A81"/>
       <c r="B81" t="s">
         <v>5</v>
       </c>
@@ -1838,29 +1847,27 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>27</v>
-      </c>
+      <c r="A82"/>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -1871,7 +1878,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -1885,41 +1892,41 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -1927,75 +1934,77 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90"/>
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -2004,13 +2013,11 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s">
-        <v>68</v>
-      </c>
+      <c r="A94"/>
       <c r="B94" t="s">
         <v>5</v>
       </c>
@@ -2018,12 +2025,12 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -2032,18 +2039,18 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2051,7 +2058,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2060,12 +2067,12 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2074,26 +2081,26 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2102,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -2116,12 +2123,12 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2135,21 +2142,21 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -2158,26 +2165,26 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -2186,12 +2193,12 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2200,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
@@ -2214,12 +2221,12 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -2228,12 +2235,12 @@
         <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -2242,21 +2249,21 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
         <v>72</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -2281,29 +2288,29 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2312,46 +2319,46 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -2359,7 +2366,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -2368,38 +2375,40 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121"/>
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -2408,12 +2417,12 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2422,40 +2431,38 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s">
-        <v>60</v>
-      </c>
+      <c r="A125"/>
       <c r="B125" t="s">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -2464,12 +2471,12 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -2478,40 +2485,40 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -2520,12 +2527,12 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2534,38 +2541,40 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132"/>
+      <c r="A132" t="s">
+        <v>50</v>
+      </c>
       <c r="B132" t="s">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2574,12 +2583,12 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2588,35 +2597,33 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s">
-        <v>8</v>
-      </c>
+      <c r="A136"/>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
@@ -2635,49 +2642,49 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -2686,40 +2693,40 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2728,12 +2735,12 @@
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -2742,12 +2749,12 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2756,40 +2763,40 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2798,110 +2805,110 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -2910,26 +2917,26 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -2938,68 +2945,68 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -3013,7 +3020,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -3022,12 +3029,12 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -3036,54 +3043,54 @@
         <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -3092,26 +3099,26 @@
         <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -3120,12 +3127,12 @@
         <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -3134,40 +3141,40 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -3176,40 +3183,40 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3223,72 +3230,72 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186">
@@ -3296,7 +3303,7 @@
         <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -3307,61 +3314,63 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188"/>
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -3370,26 +3379,26 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -3398,49 +3407,47 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s">
-        <v>58</v>
-      </c>
+      <c r="A194"/>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -3454,12 +3461,12 @@
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3468,80 +3475,82 @@
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201"/>
+      <c r="A201" t="s">
+        <v>48</v>
+      </c>
       <c r="B201" t="s">
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -3550,96 +3559,94 @@
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s">
-        <v>68</v>
-      </c>
+      <c r="A207"/>
       <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D209" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -3648,12 +3655,12 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -3662,67 +3669,69 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
+        <v>63</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
         <v>27</v>
       </c>
-      <c r="B216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C216" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217"/>
       <c r="B217" t="s">
         <v>5</v>
       </c>
@@ -3730,18 +3739,18 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -3749,49 +3758,49 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -3800,13 +3809,11 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s">
-        <v>48</v>
-      </c>
+      <c r="A223"/>
       <c r="B223" t="s">
         <v>5</v>
       </c>
@@ -3814,35 +3821,35 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
@@ -3856,26 +3863,26 @@
         <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -3889,7 +3896,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -3898,102 +3905,102 @@
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
         <v>12</v>
       </c>
-      <c r="C231" t="s">
-        <v>9</v>
-      </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" t="s">
         <v>16</v>
@@ -4001,139 +4008,139 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D239" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C242" t="s">
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D244" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B246" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
@@ -4141,7 +4148,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -4150,12 +4157,12 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -4164,68 +4171,68 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D249" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D252" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -4234,12 +4241,12 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -4248,32 +4255,32 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D256" t="s">
         <v>7</v>
@@ -4281,63 +4288,63 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D257" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B259" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -4351,7 +4358,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4360,12 +4367,12 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B263" t="s">
         <v>12</v>
@@ -4374,21 +4381,21 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
@@ -4396,18 +4403,18 @@
         <v>11</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C265" t="s">
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -4416,12 +4423,12 @@
         <v>22</v>
       </c>
       <c r="D266" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -4430,12 +4437,12 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -4444,26 +4451,26 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -4472,40 +4479,40 @@
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D272" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -4514,12 +4521,12 @@
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -4533,21 +4540,21 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4556,21 +4563,21 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278">
@@ -4584,54 +4591,54 @@
         <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D281" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -4640,21 +4647,21 @@
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
@@ -4668,54 +4675,54 @@
         <v>9</v>
       </c>
       <c r="D284" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B286" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C287" t="s">
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -4724,12 +4731,12 @@
         <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -4738,7 +4745,7 @@
         <v>9</v>
       </c>
       <c r="D289" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="290">
@@ -4756,62 +4763,64 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291"/>
+      <c r="A291" t="s">
+        <v>27</v>
+      </c>
       <c r="B291" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C291" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C292" t="s">
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C293" t="s">
         <v>9</v>
       </c>
       <c r="D293" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C294" t="s">
         <v>9</v>
       </c>
       <c r="D294" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -4820,40 +4829,38 @@
         <v>9</v>
       </c>
       <c r="D295" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
       </c>
       <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297"/>
+      <c r="B297" t="s">
+        <v>54</v>
+      </c>
+      <c r="C297" t="s">
         <v>22</v>
       </c>
-      <c r="D296" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>53</v>
-      </c>
-      <c r="B297" t="s">
-        <v>12</v>
-      </c>
-      <c r="C297" t="s">
-        <v>9</v>
-      </c>
       <c r="D297" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -4862,40 +4869,40 @@
         <v>9</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
       </c>
       <c r="C299" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C300" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -4909,35 +4916,35 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -4946,40 +4953,40 @@
         <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
       </c>
       <c r="C305" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
       </c>
       <c r="C306" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D306" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -4988,54 +4995,54 @@
         <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B308" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C308" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D309" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B310" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -5044,12 +5051,12 @@
         <v>9</v>
       </c>
       <c r="D311" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -5058,40 +5065,40 @@
         <v>9</v>
       </c>
       <c r="D312" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D313" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B314" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
       </c>
       <c r="D314" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -5100,26 +5107,26 @@
         <v>9</v>
       </c>
       <c r="D315" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C316" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -5128,40 +5135,40 @@
         <v>9</v>
       </c>
       <c r="D317" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D318" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D319" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -5170,12 +5177,12 @@
         <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -5184,18 +5191,18 @@
         <v>9</v>
       </c>
       <c r="D321" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
       </c>
       <c r="C322" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D322" t="s">
         <v>7</v>
@@ -5203,35 +5210,35 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D323" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
       </c>
       <c r="C324" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D324" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -5240,40 +5247,40 @@
         <v>9</v>
       </c>
       <c r="D325" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
       </c>
       <c r="C326" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D326" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B327" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C327" t="s">
         <v>9</v>
       </c>
       <c r="D327" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -5282,18 +5289,18 @@
         <v>22</v>
       </c>
       <c r="D328" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
       </c>
       <c r="C329" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D329" t="s">
         <v>7</v>
@@ -5301,13 +5308,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
       </c>
       <c r="C330" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D330" t="s">
         <v>16</v>
@@ -5315,7 +5322,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -5324,16 +5331,18 @@
         <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332"/>
+      <c r="A332" t="s">
+        <v>17</v>
+      </c>
       <c r="B332" t="s">
         <v>5</v>
       </c>
       <c r="C332" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D332" t="s">
         <v>16</v>
@@ -5341,7 +5350,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -5350,68 +5359,68 @@
         <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B334" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C334" t="s">
         <v>9</v>
       </c>
       <c r="D334" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D335" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D336" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B337" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D337" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -5420,18 +5429,16 @@
         <v>9</v>
       </c>
       <c r="D338" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s">
-        <v>116</v>
-      </c>
+      <c r="A339"/>
       <c r="B339" t="s">
         <v>5</v>
       </c>
       <c r="C339" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D339" t="s">
         <v>16</v>
@@ -5439,7 +5446,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -5448,7 +5455,7 @@
         <v>9</v>
       </c>
       <c r="D340" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341">
@@ -5462,12 +5469,12 @@
         <v>9</v>
       </c>
       <c r="D341" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
@@ -5476,40 +5483,40 @@
         <v>9</v>
       </c>
       <c r="D342" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D343" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C344" t="s">
         <v>9</v>
       </c>
       <c r="D344" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -5518,26 +5525,26 @@
         <v>9</v>
       </c>
       <c r="D345" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
       </c>
       <c r="C346" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D346" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -5546,94 +5553,96 @@
         <v>9</v>
       </c>
       <c r="D347" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C348" t="s">
         <v>9</v>
       </c>
       <c r="D348" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
       </c>
       <c r="C349" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D349" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
         <v>12</v>
       </c>
-      <c r="C350" t="s">
-        <v>9</v>
-      </c>
       <c r="D350" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D351" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="B352" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C352" t="s">
         <v>9</v>
       </c>
       <c r="D352" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353"/>
+      <c r="A353" t="s">
+        <v>27</v>
+      </c>
       <c r="B353" t="s">
         <v>5</v>
       </c>
       <c r="C353" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D353" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -5642,32 +5651,32 @@
         <v>9</v>
       </c>
       <c r="D354" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B355" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D355" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D356" t="s">
         <v>7</v>
@@ -5675,105 +5684,103 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B357" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C357" t="s">
         <v>9</v>
       </c>
       <c r="D357" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D358" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B359" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C359" t="s">
         <v>9</v>
       </c>
       <c r="D359" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s">
-        <v>54</v>
-      </c>
+      <c r="A360"/>
       <c r="B360" t="s">
         <v>5</v>
       </c>
       <c r="C360" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D360" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
       </c>
       <c r="C361" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D361" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
       </c>
       <c r="C362" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D362" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
       </c>
       <c r="C363" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D363" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -5782,12 +5789,12 @@
         <v>9</v>
       </c>
       <c r="D364" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -5796,24 +5803,26 @@
         <v>9</v>
       </c>
       <c r="D365" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366"/>
+      <c r="A366" t="s">
+        <v>40</v>
+      </c>
       <c r="B366" t="s">
         <v>5</v>
       </c>
       <c r="C366" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D366" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -5822,12 +5831,12 @@
         <v>9</v>
       </c>
       <c r="D367" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -5836,26 +5845,26 @@
         <v>9</v>
       </c>
       <c r="D368" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
       </c>
       <c r="C369" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D369" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -5864,12 +5873,12 @@
         <v>9</v>
       </c>
       <c r="D370" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -5883,7 +5892,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -5892,12 +5901,12 @@
         <v>9</v>
       </c>
       <c r="D372" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -5906,18 +5915,16 @@
         <v>9</v>
       </c>
       <c r="D373" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s">
-        <v>123</v>
-      </c>
+      <c r="A374"/>
       <c r="B374" t="s">
         <v>5</v>
       </c>
       <c r="C374" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D374" t="s">
         <v>16</v>
@@ -5925,7 +5932,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -5934,12 +5941,12 @@
         <v>9</v>
       </c>
       <c r="D375" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -5948,26 +5955,26 @@
         <v>9</v>
       </c>
       <c r="D376" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
       </c>
       <c r="C377" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D377" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -5981,7 +5988,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B379" t="s">
         <v>5</v>
@@ -5995,13 +6002,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
       </c>
       <c r="C380" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D380" t="s">
         <v>13</v>
@@ -6009,15 +6016,127 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
+        <v>50</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>9</v>
+      </c>
+      <c r="D381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>126</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>50</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>9</v>
+      </c>
+      <c r="D383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>56</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>9</v>
+      </c>
+      <c r="D384" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>9</v>
+      </c>
+      <c r="D385" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
         <v>4</v>
       </c>
-      <c r="B381" t="s">
-        <v>5</v>
-      </c>
-      <c r="C381" t="s">
-        <v>9</v>
-      </c>
-      <c r="D381" t="s">
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>9</v>
+      </c>
+      <c r="D386" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>8</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>107</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>22</v>
+      </c>
+      <c r="D388" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389" t="s">
         <v>16</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -293,6 +293,9 @@
     <t xml:space="preserve">Numerus</t>
   </si>
   <si>
+    <t xml:space="preserve">Swiss Group for Applied Cancer Research</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
@@ -366,9 +369,6 @@
   </si>
   <si>
     <t xml:space="preserve">Merus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Group for Applied Cancer Research</t>
   </si>
   <si>
     <t xml:space="preserve">ClinChoice</t>
@@ -898,29 +898,27 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -929,96 +927,96 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1027,38 +1025,38 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1067,12 +1065,12 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1081,40 +1079,40 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1123,26 +1121,26 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1151,12 +1149,12 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1165,40 +1163,40 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1207,67 +1205,67 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
         <v>22</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39"/>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
+      <c r="A40"/>
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -1275,12 +1273,12 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1289,12 +1287,12 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1303,12 +1301,12 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1317,40 +1315,40 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1359,12 +1357,12 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1373,12 +1371,12 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1387,18 +1385,18 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -1406,63 +1404,63 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1471,32 +1469,32 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
@@ -1504,7 +1502,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -1518,41 +1516,41 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -1560,7 +1558,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1574,21 +1572,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -1597,12 +1595,12 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1616,35 +1614,35 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -1653,12 +1651,12 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1667,40 +1665,40 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -1709,46 +1707,46 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -1756,49 +1754,49 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -1807,47 +1805,49 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
         <v>27</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81"/>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="82">
@@ -1859,13 +1859,11 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>50</v>
-      </c>
+      <c r="A83"/>
       <c r="B83" t="s">
         <v>5</v>
       </c>
@@ -1873,12 +1871,12 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -1892,7 +1890,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -1906,21 +1904,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
@@ -1929,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88">
@@ -1937,7 +1935,7 @@
         <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
@@ -1948,35 +1946,35 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -1985,53 +1983,53 @@
         <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
         <v>27</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94"/>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="95">
-      <c r="A95" t="s">
-        <v>27</v>
-      </c>
+      <c r="A95"/>
       <c r="B95" t="s">
         <v>5</v>
       </c>
@@ -2039,40 +2037,40 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2081,12 +2079,12 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -2095,12 +2093,12 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2109,12 +2107,12 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -2128,7 +2126,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2142,35 +2140,35 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -2184,7 +2182,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -2193,12 +2191,12 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2207,12 +2205,12 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2221,40 +2219,40 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2263,12 +2261,12 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -2277,40 +2275,40 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2319,12 +2317,12 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -2338,77 +2336,77 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -2422,7 +2420,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2431,12 +2429,12 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2449,26 +2447,26 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125"/>
+      <c r="A125" t="s">
+        <v>79</v>
+      </c>
       <c r="B125" t="s">
         <v>5</v>
       </c>
       <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126"/>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
         <v>6</v>
-      </c>
-      <c r="D125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>56</v>
-      </c>
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" t="s">
-        <v>9</v>
       </c>
       <c r="D126" t="s">
         <v>16</v>
@@ -2476,7 +2474,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -2490,49 +2488,49 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2546,7 +2544,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -2555,75 +2553,75 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
         <v>70</v>
       </c>
-      <c r="B135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136"/>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s">
-        <v>27</v>
-      </c>
+      <c r="A137"/>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
@@ -2642,7 +2640,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -2651,12 +2649,12 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -2670,49 +2668,49 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2726,21 +2724,21 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -2749,12 +2747,12 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2768,7 +2766,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -2782,7 +2780,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -2791,12 +2789,12 @@
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2805,12 +2803,12 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -2819,144 +2817,144 @@
         <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B161" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
         <v>16</v>
@@ -2964,13 +2962,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D162" t="s">
         <v>16</v>
@@ -2978,7 +2976,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -2992,35 +2990,35 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -3029,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
@@ -3048,49 +3046,49 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -3099,12 +3097,12 @@
         <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -3127,12 +3125,12 @@
         <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -3141,32 +3139,32 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
@@ -3174,49 +3172,49 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3225,35 +3223,35 @@
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183">
@@ -3267,12 +3265,12 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -3281,74 +3279,74 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D186" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
         <v>12</v>
-      </c>
-      <c r="C189" t="s">
-        <v>9</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
@@ -3356,16 +3354,16 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
@@ -3373,32 +3371,32 @@
         <v>50</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -3407,44 +3405,44 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194"/>
+      <c r="A194" t="s">
+        <v>23</v>
+      </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196"/>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
         <v>12</v>
-      </c>
-      <c r="D195" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>50</v>
-      </c>
-      <c r="B196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" t="s">
-        <v>9</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -3452,21 +3450,21 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3489,12 +3487,12 @@
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -3503,12 +3501,12 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3517,26 +3515,26 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -3545,53 +3543,55 @@
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207"/>
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
@@ -3604,22 +3604,20 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s">
-        <v>66</v>
-      </c>
+      <c r="A209"/>
       <c r="B209" t="s">
         <v>5</v>
       </c>
@@ -3627,12 +3625,12 @@
         <v>21</v>
       </c>
       <c r="D209" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3641,26 +3639,26 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -3669,12 +3667,12 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -3688,91 +3686,91 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D216" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -3781,21 +3779,21 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="222">
@@ -3809,11 +3807,13 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223"/>
+      <c r="A223" t="s">
+        <v>23</v>
+      </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
@@ -3826,80 +3826,78 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s">
-        <v>97</v>
-      </c>
+      <c r="A225"/>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C226" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D226" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -3910,36 +3908,34 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s">
-        <v>17</v>
-      </c>
+      <c r="A232"/>
       <c r="B232" t="s">
         <v>5</v>
       </c>
@@ -3947,82 +3943,82 @@
         <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -4031,18 +4027,18 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
         <v>16</v>
@@ -4050,41 +4046,41 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C240" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B242" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D242" t="s">
         <v>16</v>
@@ -4092,21 +4088,21 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4115,26 +4111,26 @@
         <v>21</v>
       </c>
       <c r="D244" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -4143,32 +4139,32 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D247" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" t="s">
         <v>7</v>
@@ -4176,35 +4172,35 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -4213,40 +4209,40 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="B252" t="s">
         <v>54</v>
       </c>
       <c r="C252" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -4255,74 +4251,74 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C255" t="s">
         <v>22</v>
       </c>
       <c r="D255" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B256" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D258" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
@@ -4330,21 +4326,21 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -4353,12 +4349,12 @@
         <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4372,100 +4368,100 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B265" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C265" t="s">
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C268" t="s">
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270">
@@ -4484,7 +4480,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -4493,26 +4489,26 @@
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D272" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -4521,12 +4517,12 @@
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -4535,26 +4531,26 @@
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4563,26 +4559,26 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -4591,7 +4587,7 @@
         <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="279">
@@ -4610,35 +4606,35 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D280" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -4647,68 +4643,68 @@
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D285" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -4717,40 +4713,40 @@
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D288" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -4759,12 +4755,12 @@
         <v>9</v>
       </c>
       <c r="D290" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -4773,21 +4769,21 @@
         <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C292" t="s">
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="293">
@@ -4795,13 +4791,13 @@
         <v>27</v>
       </c>
       <c r="B293" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C293" t="s">
         <v>9</v>
       </c>
       <c r="D293" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294">
@@ -4815,21 +4811,21 @@
         <v>9</v>
       </c>
       <c r="D294" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C295" t="s">
         <v>9</v>
       </c>
       <c r="D295" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296">
@@ -4837,30 +4833,32 @@
         <v>27</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C296" t="s">
         <v>9</v>
       </c>
       <c r="D296" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297"/>
+      <c r="A297" t="s">
+        <v>27</v>
+      </c>
       <c r="B297" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D297" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -4869,12 +4867,12 @@
         <v>9</v>
       </c>
       <c r="D298" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -4883,26 +4881,24 @@
         <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s">
-        <v>11</v>
-      </c>
+      <c r="A300"/>
       <c r="B300" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C300" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -4911,7 +4907,7 @@
         <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="302">
@@ -4922,15 +4918,15 @@
         <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D302" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B303" t="s">
         <v>12</v>
@@ -4939,12 +4935,12 @@
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -4953,7 +4949,7 @@
         <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="305">
@@ -4967,26 +4963,26 @@
         <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C306" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -4995,21 +4991,21 @@
         <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
       </c>
       <c r="C308" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309">
@@ -5020,15 +5016,15 @@
         <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D309" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -5037,40 +5033,40 @@
         <v>9</v>
       </c>
       <c r="D310" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D311" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
       </c>
       <c r="C312" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D312" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -5079,21 +5075,21 @@
         <v>9</v>
       </c>
       <c r="D313" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B314" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
       </c>
       <c r="D314" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315">
@@ -5107,29 +5103,29 @@
         <v>9</v>
       </c>
       <c r="D315" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B316" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D316" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C317" t="s">
         <v>9</v>
@@ -5140,7 +5136,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -5149,18 +5145,18 @@
         <v>9</v>
       </c>
       <c r="D318" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B319" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D319" t="s">
         <v>10</v>
@@ -5168,7 +5164,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -5177,12 +5173,12 @@
         <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -5191,26 +5187,26 @@
         <v>9</v>
       </c>
       <c r="D321" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
       </c>
       <c r="C322" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D322" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -5219,26 +5215,26 @@
         <v>9</v>
       </c>
       <c r="D323" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -5252,7 +5248,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -5261,32 +5257,32 @@
         <v>9</v>
       </c>
       <c r="D326" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
       </c>
       <c r="C327" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D327" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
       </c>
       <c r="C328" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D328" t="s">
         <v>7</v>
@@ -5294,21 +5290,21 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D329" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -5317,40 +5313,40 @@
         <v>9</v>
       </c>
       <c r="D330" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D331" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
       </c>
       <c r="C332" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D332" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -5359,35 +5355,35 @@
         <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B334" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C334" t="s">
         <v>9</v>
       </c>
       <c r="D334" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D335" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="336">
@@ -5406,34 +5402,36 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B337" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D337" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
+        <v>107</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>22</v>
+      </c>
+      <c r="D338" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
         <v>50</v>
       </c>
-      <c r="B338" t="s">
-        <v>5</v>
-      </c>
-      <c r="C338" t="s">
-        <v>9</v>
-      </c>
-      <c r="D338" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339"/>
       <c r="B339" t="s">
         <v>5</v>
       </c>
@@ -5441,18 +5439,18 @@
         <v>9</v>
       </c>
       <c r="D339" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
       </c>
       <c r="C340" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D340" t="s">
         <v>16</v>
@@ -5460,7 +5458,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -5469,13 +5467,11 @@
         <v>9</v>
       </c>
       <c r="D341" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s">
-        <v>27</v>
-      </c>
+      <c r="A342"/>
       <c r="B342" t="s">
         <v>5</v>
       </c>
@@ -5483,40 +5479,40 @@
         <v>9</v>
       </c>
       <c r="D342" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D343" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B344" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C344" t="s">
         <v>9</v>
       </c>
       <c r="D344" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -5525,18 +5521,18 @@
         <v>9</v>
       </c>
       <c r="D345" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
       </c>
       <c r="C346" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D346" t="s">
         <v>16</v>
@@ -5544,7 +5540,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -5553,60 +5549,60 @@
         <v>9</v>
       </c>
       <c r="D347" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
       </c>
       <c r="C348" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D348" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B349" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C349" t="s">
         <v>9</v>
       </c>
       <c r="D349" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D350" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D351" t="s">
         <v>16</v>
@@ -5614,7 +5610,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -5623,12 +5619,12 @@
         <v>9</v>
       </c>
       <c r="D352" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -5637,12 +5633,12 @@
         <v>9</v>
       </c>
       <c r="D353" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -5651,43 +5647,43 @@
         <v>9</v>
       </c>
       <c r="D354" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
         <v>12</v>
       </c>
-      <c r="C355" t="s">
-        <v>9</v>
-      </c>
       <c r="D355" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D356" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C357" t="s">
         <v>9</v>
@@ -5698,70 +5694,72 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D358" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>9</v>
+      </c>
+      <c r="D359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>70</v>
+      </c>
+      <c r="B360" t="s">
         <v>12</v>
       </c>
-      <c r="C359" t="s">
-        <v>9</v>
-      </c>
-      <c r="D359" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360"/>
-      <c r="B360" t="s">
-        <v>5</v>
-      </c>
       <c r="C360" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D360" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
       </c>
       <c r="C361" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D361" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B362" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D362" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363">
@@ -5780,41 +5778,39 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B364" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C364" t="s">
         <v>9</v>
       </c>
       <c r="D364" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s">
-        <v>23</v>
-      </c>
+      <c r="A365"/>
       <c r="B365" t="s">
         <v>5</v>
       </c>
       <c r="C365" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D365" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
       </c>
       <c r="C366" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D366" t="s">
         <v>10</v>
@@ -5822,41 +5818,41 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
       </c>
       <c r="C367" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D367" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
       </c>
       <c r="C368" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D368" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
       </c>
       <c r="C369" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D369" t="s">
         <v>7</v>
@@ -5864,7 +5860,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -5873,21 +5869,21 @@
         <v>9</v>
       </c>
       <c r="D370" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D371" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372">
@@ -5901,12 +5897,12 @@
         <v>9</v>
       </c>
       <c r="D372" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -5919,20 +5915,22 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374"/>
+      <c r="A374" t="s">
+        <v>123</v>
+      </c>
       <c r="B374" t="s">
         <v>5</v>
       </c>
       <c r="C374" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D374" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -5941,12 +5939,12 @@
         <v>9</v>
       </c>
       <c r="D375" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -5955,18 +5953,18 @@
         <v>9</v>
       </c>
       <c r="D376" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
       </c>
       <c r="C377" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D377" t="s">
         <v>16</v>
@@ -5974,7 +5972,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -5987,9 +5985,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s">
-        <v>56</v>
-      </c>
+      <c r="A379"/>
       <c r="B379" t="s">
         <v>5</v>
       </c>
@@ -6011,12 +6007,12 @@
         <v>9</v>
       </c>
       <c r="D380" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -6025,12 +6021,12 @@
         <v>9</v>
       </c>
       <c r="D381" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B382" t="s">
         <v>5</v>
@@ -6044,7 +6040,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
@@ -6053,7 +6049,7 @@
         <v>9</v>
       </c>
       <c r="D383" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="384">
@@ -6072,7 +6068,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
@@ -6081,12 +6077,12 @@
         <v>9</v>
       </c>
       <c r="D385" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -6095,18 +6091,18 @@
         <v>9</v>
       </c>
       <c r="D386" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
       </c>
       <c r="C387" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D387" t="s">
         <v>16</v>
@@ -6114,29 +6110,99 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
       </c>
       <c r="C388" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D388" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
+        <v>56</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>11</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>9</v>
+      </c>
+      <c r="D390" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
         <v>4</v>
       </c>
-      <c r="B389" t="s">
-        <v>5</v>
-      </c>
-      <c r="C389" t="s">
-        <v>9</v>
-      </c>
-      <c r="D389" t="s">
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>9</v>
+      </c>
+      <c r="D391" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>8</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>9</v>
+      </c>
+      <c r="D392" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>108</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>22</v>
+      </c>
+      <c r="D393" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>9</v>
+      </c>
+      <c r="D394" t="s">
         <v>16</v>
       </c>
     </row>

--- a/upcoming/20250319/reg3.xlsx
+++ b/upcoming/20250319/reg3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">inst2</t>
   </si>
@@ -80,6 +80,9 @@
     <t xml:space="preserve">CRO</t>
   </si>
   <si>
+    <t xml:space="preserve">Onkologischer Schwerpunkt Stuttgart e.V.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Academia</t>
   </si>
   <si>
@@ -369,6 +372,9 @@
   </si>
   <si>
     <t xml:space="preserve">Merus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbott</t>
   </si>
   <si>
     <t xml:space="preserve">ClinChoice</t>
@@ -893,7 +899,9 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13"/>
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -910,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -918,7 +926,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -932,7 +940,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -941,12 +949,12 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -960,7 +968,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -969,12 +977,12 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -983,12 +991,12 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -997,12 +1005,12 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1011,12 +1019,12 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1030,7 +1038,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1039,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1051,12 +1059,12 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1070,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1093,12 +1101,12 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1107,12 +1115,12 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1121,12 +1129,12 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1135,21 +1143,21 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1160,10 +1168,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1174,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -1188,29 +1196,29 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1219,67 +1227,67 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40"/>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
+      <c r="A41"/>
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -1287,12 +1295,12 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1301,12 +1309,12 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1315,12 +1323,12 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1329,40 +1337,40 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1371,12 +1379,12 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1385,12 +1393,12 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1399,7 +1407,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -1410,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -1424,57 +1432,57 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1483,32 +1491,32 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -1536,10 +1544,10 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -1550,10 +1558,10 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -1564,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -1572,13 +1580,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -1586,21 +1594,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1609,12 +1617,12 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -1628,35 +1636,35 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1665,12 +1673,12 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1679,40 +1687,40 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -1721,21 +1729,21 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -1746,21 +1754,21 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -1768,49 +1776,49 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -1819,39 +1827,41 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82"/>
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83">
@@ -1871,13 +1881,11 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s">
-        <v>50</v>
-      </c>
+      <c r="A84"/>
       <c r="B84" t="s">
         <v>5</v>
       </c>
@@ -1885,12 +1893,12 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -1904,7 +1912,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1918,21 +1926,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -1941,15 +1949,15 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -1960,35 +1968,35 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -1997,7 +2005,7 @@
         <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -2008,28 +2016,30 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95"/>
       <c r="B95" t="s">
         <v>5</v>
       </c>
@@ -2037,13 +2047,11 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s">
-        <v>27</v>
-      </c>
+      <c r="A96"/>
       <c r="B96" t="s">
         <v>5</v>
       </c>
@@ -2051,40 +2059,40 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -2093,12 +2101,12 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2107,12 +2115,12 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -2121,12 +2129,12 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2140,7 +2148,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2154,35 +2162,35 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -2196,7 +2204,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2205,12 +2213,12 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2219,12 +2227,12 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -2233,40 +2241,40 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -2275,12 +2283,12 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2289,40 +2297,40 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -2331,12 +2339,12 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2350,77 +2358,77 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" t="s">
         <v>77</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2434,7 +2442,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2443,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -2457,30 +2465,30 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126"/>
+      <c r="A126" t="s">
+        <v>80</v>
+      </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127"/>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
         <v>6</v>
-      </c>
-      <c r="D126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>9</v>
       </c>
       <c r="D127" t="s">
         <v>16</v>
@@ -2488,7 +2496,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -2502,49 +2510,49 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -2558,7 +2566,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -2567,40 +2575,40 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -2609,38 +2617,38 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137"/>
+      <c r="A137" t="s">
+        <v>71</v>
+      </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s">
-        <v>27</v>
-      </c>
+      <c r="A138"/>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -2649,12 +2657,12 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -2663,12 +2671,12 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -2682,49 +2690,49 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2733,26 +2741,26 @@
         <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2761,12 +2769,12 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -2780,7 +2788,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -2794,7 +2802,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2803,12 +2811,12 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -2817,12 +2825,12 @@
         <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -2831,102 +2839,102 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D158" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
@@ -2934,21 +2942,21 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -2957,26 +2965,26 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -2990,13 +2998,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D164" t="s">
         <v>16</v>
@@ -3004,21 +3012,21 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -3032,21 +3040,21 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -3055,68 +3063,68 @@
         <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -3125,12 +3133,12 @@
         <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -3139,12 +3147,12 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -3153,68 +3161,68 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3223,40 +3231,40 @@
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -3265,26 +3273,26 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -3293,26 +3301,26 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -3321,60 +3329,60 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>39</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
         <v>23</v>
       </c>
-      <c r="B190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" t="s">
-        <v>6</v>
-      </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
         <v>12</v>
-      </c>
-      <c r="C191" t="s">
-        <v>9</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -3382,49 +3390,49 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>41</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
         <v>23</v>
       </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>9</v>
-      </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3433,44 +3441,44 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196"/>
+      <c r="A196" t="s">
+        <v>24</v>
+      </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198"/>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
         <v>12</v>
-      </c>
-      <c r="D197" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>50</v>
-      </c>
-      <c r="B198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C198" t="s">
-        <v>9</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -3478,21 +3486,21 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -3506,7 +3514,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3515,12 +3523,12 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -3529,12 +3537,12 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -3543,26 +3551,26 @@
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -3571,53 +3579,55 @@
         <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209"/>
+      <c r="A209" t="s">
+        <v>34</v>
+      </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
@@ -3625,27 +3635,25 @@
         <v>21</v>
       </c>
       <c r="D209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s">
-        <v>66</v>
-      </c>
+      <c r="A211"/>
       <c r="B211" t="s">
         <v>5</v>
       </c>
@@ -3653,12 +3661,12 @@
         <v>21</v>
       </c>
       <c r="D211" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -3667,26 +3675,26 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D213" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -3695,12 +3703,12 @@
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -3714,30 +3722,30 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
@@ -3748,57 +3756,57 @@
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D218" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -3807,26 +3815,26 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -3835,11 +3843,13 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225"/>
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
@@ -3852,80 +3862,78 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B226" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s">
-        <v>98</v>
-      </c>
+      <c r="A227"/>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C228" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D228" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
@@ -3935,34 +3943,36 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232"/>
+      <c r="A232" t="s">
+        <v>24</v>
+      </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -3971,46 +3981,46 @@
         <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
@@ -4018,7 +4028,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -4027,88 +4037,88 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D241" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D244" t="s">
         <v>16</v>
@@ -4116,27 +4126,27 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B245" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D245" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D246" t="s">
         <v>16</v>
@@ -4144,63 +4154,63 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -4214,44 +4224,44 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B252" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C254" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D254" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255">
@@ -4259,18 +4269,18 @@
         <v>17</v>
       </c>
       <c r="B255" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -4279,49 +4289,49 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D257" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B259" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="260">
@@ -4332,43 +4342,43 @@
         <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D260" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D261" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
       </c>
       <c r="C262" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D262" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -4377,12 +4387,12 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -4396,7 +4406,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -4410,94 +4420,94 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C266" t="s">
         <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B268" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C268" t="s">
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C270" t="s">
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D271" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B272" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C272" t="s">
         <v>9</v>
@@ -4508,7 +4518,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -4517,15 +4527,15 @@
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
@@ -4536,21 +4546,21 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4559,26 +4569,26 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D277" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -4587,12 +4597,12 @@
         <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4601,26 +4611,26 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -4629,26 +4639,26 @@
         <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -4657,26 +4667,26 @@
         <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D284" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -4685,7 +4695,7 @@
         <v>9</v>
       </c>
       <c r="D285" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="286">
@@ -4696,15 +4706,15 @@
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -4713,46 +4723,46 @@
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D288" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D289" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D290" t="s">
         <v>16</v>
@@ -4760,21 +4770,21 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
       </c>
       <c r="C291" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D291" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -4783,12 +4793,12 @@
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -4797,12 +4807,12 @@
         <v>9</v>
       </c>
       <c r="D293" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -4811,68 +4821,68 @@
         <v>9</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C295" t="s">
         <v>9</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B296" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C296" t="s">
         <v>9</v>
       </c>
       <c r="D296" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C297" t="s">
         <v>9</v>
       </c>
       <c r="D297" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C298" t="s">
         <v>9</v>
       </c>
       <c r="D298" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -4881,24 +4891,26 @@
         <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300"/>
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
       <c r="B300" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -4907,40 +4919,38 @@
         <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s">
-        <v>111</v>
-      </c>
+      <c r="A302"/>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C302" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D302" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C303" t="s">
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -4949,18 +4959,18 @@
         <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C305" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D305" t="s">
         <v>10</v>
@@ -4968,77 +4978,77 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B306" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C306" t="s">
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D307" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D309" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D310" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -5047,54 +5057,54 @@
         <v>12</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D312" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D313" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D314" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -5103,12 +5113,12 @@
         <v>9</v>
       </c>
       <c r="D315" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -5117,26 +5127,26 @@
         <v>9</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B317" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C317" t="s">
         <v>9</v>
       </c>
       <c r="D317" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -5145,18 +5155,18 @@
         <v>9</v>
       </c>
       <c r="D318" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B319" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C319" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D319" t="s">
         <v>10</v>
@@ -5164,7 +5174,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -5173,18 +5183,18 @@
         <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C321" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D321" t="s">
         <v>10</v>
@@ -5192,13 +5202,13 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
       </c>
       <c r="C322" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D322" t="s">
         <v>10</v>
@@ -5206,7 +5216,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -5215,26 +5225,26 @@
         <v>9</v>
       </c>
       <c r="D323" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
       </c>
       <c r="C324" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D324" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -5248,7 +5258,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -5257,26 +5267,26 @@
         <v>9</v>
       </c>
       <c r="D326" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
       </c>
       <c r="C327" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D327" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -5285,26 +5295,26 @@
         <v>9</v>
       </c>
       <c r="D328" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
       </c>
       <c r="C329" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D329" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -5313,40 +5323,40 @@
         <v>9</v>
       </c>
       <c r="D330" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
       </c>
       <c r="C332" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D332" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -5355,40 +5365,40 @@
         <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
       </c>
       <c r="C334" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D334" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D335" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -5397,40 +5407,40 @@
         <v>9</v>
       </c>
       <c r="D336" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C337" t="s">
         <v>9</v>
       </c>
       <c r="D337" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
       </c>
       <c r="C338" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D338" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -5444,34 +5454,36 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C340" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D340" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
       </c>
       <c r="C341" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D341" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342"/>
+      <c r="A342" t="s">
+        <v>51</v>
+      </c>
       <c r="B342" t="s">
         <v>5</v>
       </c>
@@ -5479,18 +5491,18 @@
         <v>9</v>
       </c>
       <c r="D342" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D343" t="s">
         <v>16</v>
@@ -5498,22 +5510,20 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B344" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C344" t="s">
         <v>9</v>
       </c>
       <c r="D344" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s">
-        <v>14</v>
-      </c>
+      <c r="A345"/>
       <c r="B345" t="s">
         <v>5</v>
       </c>
@@ -5526,7 +5536,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -5540,49 +5550,49 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C347" t="s">
         <v>9</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
       </c>
       <c r="C348" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D348" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B349" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C349" t="s">
         <v>9</v>
       </c>
       <c r="D349" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
@@ -5591,21 +5601,21 @@
         <v>9</v>
       </c>
       <c r="D350" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D351" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="352">
@@ -5613,18 +5623,18 @@
         <v>11</v>
       </c>
       <c r="B352" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C352" t="s">
         <v>9</v>
       </c>
       <c r="D352" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -5633,40 +5643,40 @@
         <v>9</v>
       </c>
       <c r="D353" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
       </c>
       <c r="C354" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D354" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D355" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -5675,12 +5685,12 @@
         <v>9</v>
       </c>
       <c r="D356" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -5689,26 +5699,26 @@
         <v>9</v>
       </c>
       <c r="D357" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D358" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -5717,43 +5727,43 @@
         <v>9</v>
       </c>
       <c r="D359" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="B360" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C360" t="s">
         <v>9</v>
       </c>
       <c r="D360" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
       </c>
       <c r="C361" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D361" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B362" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C362" t="s">
         <v>9</v>
@@ -5764,76 +5774,76 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D363" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
         <v>12</v>
       </c>
-      <c r="C364" t="s">
-        <v>9</v>
-      </c>
       <c r="D364" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365"/>
+      <c r="A365" t="s">
+        <v>14</v>
+      </c>
       <c r="B365" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D365" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
       </c>
       <c r="C366" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D366" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B367" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D367" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s">
-        <v>20</v>
-      </c>
+      <c r="A368"/>
       <c r="B368" t="s">
         <v>5</v>
       </c>
@@ -5841,12 +5851,12 @@
         <v>21</v>
       </c>
       <c r="D368" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
@@ -5855,40 +5865,40 @@
         <v>9</v>
       </c>
       <c r="D369" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
       </c>
       <c r="C370" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D370" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D371" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -5897,12 +5907,12 @@
         <v>9</v>
       </c>
       <c r="D372" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -5911,12 +5921,12 @@
         <v>9</v>
       </c>
       <c r="D373" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B374" t="s">
         <v>5</v>
@@ -5925,12 +5935,12 @@
         <v>12</v>
       </c>
       <c r="D374" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -5939,12 +5949,12 @@
         <v>9</v>
       </c>
       <c r="D375" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -5958,21 +5968,21 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
       </c>
       <c r="C377" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D377" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -5981,11 +5991,13 @@
         <v>9</v>
       </c>
       <c r="D378" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379"/>
+      <c r="A379" t="s">
+        <v>8</v>
+      </c>
       <c r="B379" t="s">
         <v>5</v>
       </c>
@@ -5998,7 +6010,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -6012,7 +6024,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -6021,18 +6033,16 @@
         <v>9</v>
       </c>
       <c r="D381" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s">
-        <v>124</v>
-      </c>
+      <c r="A382"/>
       <c r="B382" t="s">
         <v>5</v>
       </c>
       <c r="C382" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D382" t="s">
         <v>16</v>
@@ -6040,7 +6050,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
@@ -6054,7 +6064,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B384" t="s">
         <v>5</v>
@@ -6063,26 +6073,26 @@
         <v>9</v>
       </c>
       <c r="D384" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
       </c>
       <c r="C385" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D385" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -6091,18 +6101,18 @@
         <v>9</v>
       </c>
       <c r="D386" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
       </c>
       <c r="C387" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D387" t="s">
         <v>16</v>
@@ -6110,7 +6120,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
@@ -6119,12 +6129,12 @@
         <v>9</v>
       </c>
       <c r="D388" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B389" t="s">
         <v>5</v>
@@ -6133,26 +6143,26 @@
         <v>9</v>
       </c>
       <c r="D389" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="B390" t="s">
         <v>5</v>
       </c>
       <c r="C390" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D390" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B391" t="s">
         <v>5</v>
@@ -6161,12 +6171,12 @@
         <v>9</v>
       </c>
       <c r="D391" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -6180,16 +6190,16 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
       </c>
       <c r="C393" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D393" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="394">
@@ -6203,6 +6213,48 @@
         <v>9</v>
       </c>
       <c r="D394" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>8</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>109</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>23</v>
+      </c>
+      <c r="D396" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397" t="s">
         <v>16</v>
       </c>
     </row>
